--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1013035.925742128</v>
+        <v>1068546.446739379</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10905484.71396393</v>
+        <v>10905484.71396392</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13131190.42752638</v>
+        <v>13131190.42752636</v>
       </c>
     </row>
     <row r="9">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>224.2073995125316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>224.2073995125312</v>
+        <v>205.4097885697677</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.39129485866161</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>194.0905826319758</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125316</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>64.95517750049201</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T12" t="n">
-        <v>52.41266509725342</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U12" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>72.84255975039162</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U13" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.1126067697642</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>49.5266603560515</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="E14" t="n">
-        <v>224.2073995125311</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>38.20745441826079</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.39129485866161</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S14" t="n">
         <v>155.8831282137152</v>
       </c>
       <c r="T14" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>224.2073995125311</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>90.45757420556129</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.1358332523363</v>
+        <v>155.9341021986652</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>224.2073995125311</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>224.2073995125311</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>224.2073995125311</v>
+        <v>57.7318258281899</v>
       </c>
       <c r="X16" t="n">
-        <v>224.2073995125311</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.63929577162538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>224.2073995125311</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>38.2074544182608</v>
       </c>
       <c r="G17" t="n">
-        <v>197.4818774906372</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>224.2073995125311</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>224.2073995125311</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>224.2073995125314</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>144.5256690865802</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.0958695452709</v>
       </c>
       <c r="H18" t="n">
-        <v>11.9506808693074</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>195.1358332523363</v>
       </c>
       <c r="U18" t="n">
-        <v>224.2073995125311</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.43081958269827</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.9948276785279</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S19" t="n">
         <v>205.787917330861</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="W19" t="n">
-        <v>205.5161545210912</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>224.2073995125314</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="G20" t="n">
-        <v>205.4097885697672</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>3.391294858661553</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T20" t="n">
         <v>212.8881935747402</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>224.2073995125314</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>49.52666035605229</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0958695452709</v>
+        <v>54.53195384891716</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>46.44034425129605</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.69423906687433</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>46.08362613105847</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>224.2073995125314</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>105.826982886329</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="V22" t="n">
-        <v>224.2073995125314</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>224.2073995125314</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>123.34082159047</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>38.20745441826091</v>
       </c>
       <c r="E23" t="n">
-        <v>145.2287532295568</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.5773955598971</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S23" t="n">
         <v>155.8831282137152</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>224.2073995125315</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.69423906687433</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>26.27897460928902</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>224.2073995125315</v>
@@ -2462,7 +2462,7 @@
         <v>224.2073995125315</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>197.4818774906376</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.5478984662373</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>224.2073995125315</v>
       </c>
       <c r="V25" t="n">
-        <v>224.2073995125315</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>67.9508359495693</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>224.2073995125315</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>194.0905826319761</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>224.2073995125315</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>224.2073995125315</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>40.55333047177764</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>46.44034425129605</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="W27" t="n">
         <v>224.2073995125315</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>151.0415332393416</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>148.2537485153393</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.40798040283481</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>78.30579477936861</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>224.2073995125316</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>224.2073995125316</v>
+        <v>153.1566643086867</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>120.5773955598971</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>212.8881935747402</v>
       </c>
       <c r="U29" t="n">
-        <v>49.5266603560524</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>60.20708528753158</v>
+        <v>27.76253212873488</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I30" t="n">
-        <v>46.44034425129605</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.2073995125316</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>224.2073995125316</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>17.99168461465717</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>210.6592332179582</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>41.59874927692242</v>
       </c>
       <c r="G32" t="n">
-        <v>224.2073995125316</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.391294858661553</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>155.8831282137152</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="V32" t="n">
-        <v>224.2073995125316</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="W32" t="n">
-        <v>49.5266603560524</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>153.9767947313961</v>
       </c>
       <c r="V33" t="n">
-        <v>119.4067124092675</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.4763771529178</v>
+        <v>197.4818774906377</v>
       </c>
       <c r="U34" t="n">
-        <v>75.34149808221802</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="W34" t="n">
-        <v>224.2073995125316</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>49.52666035605201</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="H35" t="n">
-        <v>224.2073995125314</v>
+        <v>197.4818774906376</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.391294858661553</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>224.2073995125314</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73.78495517853824</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>39.30516228258223</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T36" t="n">
         <v>195.1358332523363</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>224.2073995125314</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>105.8269828863289</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>223.8456750096581</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>41.59874927692242</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="G38" t="n">
-        <v>224.2073995125316</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.391294858661553</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T38" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>224.2073995125316</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>205.4097885697676</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>123.5594912388743</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U39" t="n">
-        <v>224.2073995125316</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>224.2073995125316</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>224.2073995125316</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>197.4818774906377</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5241058327451</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>224.2073995125316</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>205.4261928279878</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>224.2073995125314</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>224.2073995125314</v>
-      </c>
-      <c r="G41" t="n">
-        <v>194.090582631976</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.4097885697673</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="W41" t="n">
-        <v>224.2073995125314</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>20.87074797352829</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>195.1358332523363</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>215.9162917996914</v>
       </c>
       <c r="V42" t="n">
         <v>224.2073995125314</v>
@@ -3884,10 +3884,10 @@
         <v>224.2073995125314</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>109.3232354734599</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U43" t="n">
         <v>224.2073995125314</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>203.8356460106878</v>
       </c>
       <c r="W43" t="n">
-        <v>224.2073995125314</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,70 +3979,70 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>208.8010834284289</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>212.8881935747402</v>
+      </c>
+      <c r="U44" t="n">
         <v>224.2073995125314</v>
       </c>
-      <c r="D44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>224.2073995125314</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>224.2073995125314</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3.391294858661553</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>194.0905826319761</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.2335960223871</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="V45" t="n">
         <v>224.2073995125314</v>
       </c>
       <c r="W45" t="n">
-        <v>224.2073995125314</v>
+        <v>193.2220527328172</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T46" t="n">
-        <v>223.4763771529178</v>
+        <v>62.97395228254025</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="V46" t="n">
-        <v>185.6461843273925</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244.408712680731</v>
+        <v>451.8933475996888</v>
       </c>
       <c r="C11" t="n">
-        <v>244.408712680731</v>
+        <v>451.8933475996888</v>
       </c>
       <c r="D11" t="n">
-        <v>244.408712680731</v>
+        <v>225.4212268799598</v>
       </c>
       <c r="E11" t="n">
-        <v>244.408712680731</v>
+        <v>225.4212268799598</v>
       </c>
       <c r="F11" t="n">
-        <v>244.408712680731</v>
+        <v>225.4212268799598</v>
       </c>
       <c r="G11" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="H11" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="I11" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="J11" t="n">
-        <v>34.63453816531478</v>
+        <v>34.63453816531535</v>
       </c>
       <c r="K11" t="n">
-        <v>110.3989492755376</v>
+        <v>110.3989492755385</v>
       </c>
       <c r="L11" t="n">
-        <v>241.2931626632193</v>
+        <v>241.2931626632205</v>
       </c>
       <c r="M11" t="n">
-        <v>418.6076331159533</v>
+        <v>418.6076331159546</v>
       </c>
       <c r="N11" t="n">
-        <v>603.4050454560171</v>
+        <v>603.4050454560186</v>
       </c>
       <c r="O11" t="n">
-        <v>764.5687404436247</v>
+        <v>764.5687404436263</v>
       </c>
       <c r="P11" t="n">
-        <v>867.6172246027301</v>
+        <v>867.6172246027317</v>
       </c>
       <c r="Q11" t="n">
-        <v>896.8295980501248</v>
+        <v>896.8295980501265</v>
       </c>
       <c r="R11" t="n">
-        <v>893.4040476878404</v>
+        <v>893.4040476878421</v>
       </c>
       <c r="S11" t="n">
-        <v>893.4040476878404</v>
+        <v>893.4040476878421</v>
       </c>
       <c r="T11" t="n">
-        <v>697.3529541201881</v>
+        <v>678.3654683194177</v>
       </c>
       <c r="U11" t="n">
-        <v>697.3529541201881</v>
+        <v>678.3654683194177</v>
       </c>
       <c r="V11" t="n">
-        <v>697.3529541201881</v>
+        <v>678.3654683194177</v>
       </c>
       <c r="W11" t="n">
-        <v>697.3529541201881</v>
+        <v>678.3654683194177</v>
       </c>
       <c r="X11" t="n">
-        <v>470.8808334004596</v>
+        <v>451.8933475996888</v>
       </c>
       <c r="Y11" t="n">
-        <v>470.8808334004596</v>
+        <v>451.8933475996888</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>164.4711499341175</v>
+        <v>526.7904706423639</v>
       </c>
       <c r="C12" t="n">
-        <v>164.4711499341175</v>
+        <v>526.7904706423639</v>
       </c>
       <c r="D12" t="n">
-        <v>164.4711499341175</v>
+        <v>461.1791802378265</v>
       </c>
       <c r="E12" t="n">
-        <v>164.4711499341175</v>
+        <v>301.941725232371</v>
       </c>
       <c r="F12" t="n">
-        <v>17.9365919610025</v>
+        <v>155.4071672592559</v>
       </c>
       <c r="G12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="H12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="I12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="J12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="K12" t="n">
-        <v>127.31479455047</v>
+        <v>80.92661968424397</v>
       </c>
       <c r="L12" t="n">
-        <v>258.335201431758</v>
+        <v>211.947026565532</v>
       </c>
       <c r="M12" t="n">
-        <v>430.5867046011364</v>
+        <v>430.5867046011376</v>
       </c>
       <c r="N12" t="n">
-        <v>621.8058374248112</v>
+        <v>621.8058374248126</v>
       </c>
       <c r="O12" t="n">
-        <v>774.5141910698748</v>
+        <v>774.5141910698762</v>
       </c>
       <c r="P12" t="n">
-        <v>877.7430416330333</v>
+        <v>877.7430416330349</v>
       </c>
       <c r="Q12" t="n">
-        <v>896.8295980501248</v>
+        <v>896.8295980501265</v>
       </c>
       <c r="R12" t="n">
-        <v>896.8295980501248</v>
+        <v>873.9061242452029</v>
       </c>
       <c r="S12" t="n">
-        <v>896.8295980501248</v>
+        <v>723.8973729174511</v>
       </c>
       <c r="T12" t="n">
-        <v>843.8875120933031</v>
+        <v>526.7904706423639</v>
       </c>
       <c r="U12" t="n">
-        <v>617.4153913735746</v>
+        <v>526.7904706423639</v>
       </c>
       <c r="V12" t="n">
-        <v>390.9432706538461</v>
+        <v>526.7904706423639</v>
       </c>
       <c r="W12" t="n">
-        <v>164.4711499341175</v>
+        <v>526.7904706423639</v>
       </c>
       <c r="X12" t="n">
-        <v>164.4711499341175</v>
+        <v>526.7904706423639</v>
       </c>
       <c r="Y12" t="n">
-        <v>164.4711499341175</v>
+        <v>526.7904706423639</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.9365919610025</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="C13" t="n">
-        <v>17.9365919610025</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="D13" t="n">
-        <v>17.9365919610025</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="E13" t="n">
-        <v>17.9365919610025</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="F13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="G13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="H13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="I13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="J13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="K13" t="n">
-        <v>116.1990877137128</v>
+        <v>17.93659196100253</v>
       </c>
       <c r="L13" t="n">
-        <v>297.4676862869272</v>
+        <v>199.205190534217</v>
       </c>
       <c r="M13" t="n">
-        <v>401.4209243811771</v>
+        <v>400.7166350912394</v>
       </c>
       <c r="N13" t="n">
-        <v>603.5754936087112</v>
+        <v>602.8712043187735</v>
       </c>
       <c r="O13" t="n">
-        <v>774.2816624410189</v>
+        <v>773.5773731510812</v>
       </c>
       <c r="P13" t="n">
-        <v>896.8295980501248</v>
+        <v>896.1253087601872</v>
       </c>
       <c r="Q13" t="n">
-        <v>896.8295980501248</v>
+        <v>896.8295980501265</v>
       </c>
       <c r="R13" t="n">
-        <v>765.2517557262034</v>
+        <v>765.2517557262051</v>
       </c>
       <c r="S13" t="n">
-        <v>765.2517557262034</v>
+        <v>765.2517557262051</v>
       </c>
       <c r="T13" t="n">
-        <v>691.6734125439897</v>
+        <v>539.5180414303286</v>
       </c>
       <c r="U13" t="n">
-        <v>465.2012918242611</v>
+        <v>539.5180414303286</v>
       </c>
       <c r="V13" t="n">
-        <v>238.7291711045326</v>
+        <v>539.5180414303286</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7291711045326</v>
+        <v>346.4750042891526</v>
       </c>
       <c r="X13" t="n">
-        <v>238.7291711045326</v>
+        <v>346.4750042891526</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.9365919610025</v>
+        <v>346.4750042891526</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>294.4356423333082</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="C14" t="n">
-        <v>244.408712680731</v>
+        <v>509.4742217017335</v>
       </c>
       <c r="D14" t="n">
-        <v>244.408712680731</v>
+        <v>283.0021009820048</v>
       </c>
       <c r="E14" t="n">
-        <v>17.93659196100249</v>
+        <v>283.0021009820048</v>
       </c>
       <c r="F14" t="n">
-        <v>17.93659196100249</v>
+        <v>56.52998026227604</v>
       </c>
       <c r="G14" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="H14" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="I14" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J14" t="n">
-        <v>34.63453816531478</v>
+        <v>34.63453816531492</v>
       </c>
       <c r="K14" t="n">
-        <v>110.3989492755376</v>
+        <v>110.3989492755378</v>
       </c>
       <c r="L14" t="n">
-        <v>241.2931626632193</v>
+        <v>241.2931626632198</v>
       </c>
       <c r="M14" t="n">
-        <v>418.6076331159533</v>
+        <v>418.6076331159538</v>
       </c>
       <c r="N14" t="n">
-        <v>603.4050454560169</v>
+        <v>603.4050454560177</v>
       </c>
       <c r="O14" t="n">
-        <v>764.5687404436245</v>
+        <v>764.5687404436255</v>
       </c>
       <c r="P14" t="n">
-        <v>867.6172246027298</v>
+        <v>867.6172246027309</v>
       </c>
       <c r="Q14" t="n">
-        <v>896.8295980501246</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="R14" t="n">
-        <v>893.4040476878401</v>
+        <v>893.4040476878413</v>
       </c>
       <c r="S14" t="n">
-        <v>735.9463424214612</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="T14" t="n">
-        <v>520.9077630530367</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="U14" t="n">
-        <v>520.9077630530367</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="V14" t="n">
-        <v>520.9077630530367</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="W14" t="n">
-        <v>520.9077630530367</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="X14" t="n">
-        <v>294.4356423333082</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="Y14" t="n">
-        <v>294.4356423333082</v>
+        <v>735.9463424214623</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>246.7784543355804</v>
+        <v>323.708604939573</v>
       </c>
       <c r="C15" t="n">
-        <v>246.7784543355804</v>
+        <v>323.708604939573</v>
       </c>
       <c r="D15" t="n">
-        <v>246.7784543355804</v>
+        <v>323.708604939573</v>
       </c>
       <c r="E15" t="n">
-        <v>246.7784543355804</v>
+        <v>164.4711499341175</v>
       </c>
       <c r="F15" t="n">
-        <v>155.4071672592559</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="G15" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="H15" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="I15" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J15" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="K15" t="n">
-        <v>127.3147945504698</v>
+        <v>127.3147945504704</v>
       </c>
       <c r="L15" t="n">
-        <v>258.3352014317578</v>
+        <v>258.3352014317584</v>
       </c>
       <c r="M15" t="n">
-        <v>430.5867046011361</v>
+        <v>430.5867046011369</v>
       </c>
       <c r="N15" t="n">
-        <v>621.805837424811</v>
+        <v>621.8058374248119</v>
       </c>
       <c r="O15" t="n">
-        <v>774.5141910698745</v>
+        <v>774.5141910698756</v>
       </c>
       <c r="P15" t="n">
-        <v>877.743041633033</v>
+        <v>877.7430416330341</v>
       </c>
       <c r="Q15" t="n">
-        <v>896.8295980501246</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="R15" t="n">
-        <v>896.8295980501246</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="S15" t="n">
-        <v>896.8295980501246</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="T15" t="n">
-        <v>699.7226957750373</v>
+        <v>739.3204039100598</v>
       </c>
       <c r="U15" t="n">
-        <v>699.7226957750373</v>
+        <v>739.3204039100598</v>
       </c>
       <c r="V15" t="n">
-        <v>473.2505750553089</v>
+        <v>739.3204039100598</v>
       </c>
       <c r="W15" t="n">
-        <v>246.7784543355804</v>
+        <v>739.3204039100598</v>
       </c>
       <c r="X15" t="n">
-        <v>246.7784543355804</v>
+        <v>531.468903704527</v>
       </c>
       <c r="Y15" t="n">
-        <v>246.7784543355804</v>
+        <v>323.708604939573</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.93659196100249</v>
+        <v>656.8661576358558</v>
       </c>
       <c r="C16" t="n">
-        <v>17.93659196100249</v>
+        <v>487.9299747079489</v>
       </c>
       <c r="D16" t="n">
-        <v>17.93659196100249</v>
+        <v>487.9299747079489</v>
       </c>
       <c r="E16" t="n">
-        <v>17.93659196100249</v>
+        <v>487.9299747079489</v>
       </c>
       <c r="F16" t="n">
-        <v>17.93659196100249</v>
+        <v>341.0400272100385</v>
       </c>
       <c r="G16" t="n">
-        <v>17.93659196100249</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="H16" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="I16" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J16" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="K16" t="n">
-        <v>116.1990877137128</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="L16" t="n">
-        <v>297.4676862869272</v>
+        <v>199.205190534217</v>
       </c>
       <c r="M16" t="n">
-        <v>498.9791308439495</v>
+        <v>400.7166350912394</v>
       </c>
       <c r="N16" t="n">
-        <v>701.1337000714836</v>
+        <v>602.8712043187735</v>
       </c>
       <c r="O16" t="n">
-        <v>871.8398689037913</v>
+        <v>773.5773731510812</v>
       </c>
       <c r="P16" t="n">
-        <v>896.8295980501246</v>
+        <v>895.4188397508101</v>
       </c>
       <c r="Q16" t="n">
-        <v>896.8295980501246</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="R16" t="n">
-        <v>765.2517557262032</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="S16" t="n">
-        <v>557.3851725637173</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="T16" t="n">
-        <v>557.3851725637173</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="U16" t="n">
-        <v>557.3851725637173</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="V16" t="n">
-        <v>557.3851725637173</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="W16" t="n">
-        <v>330.9130518439889</v>
+        <v>838.5146224660955</v>
       </c>
       <c r="X16" t="n">
-        <v>104.4409311242605</v>
+        <v>838.5146224660955</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.93659196100249</v>
+        <v>838.5146224660955</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>443.8853566106675</v>
+        <v>283.0021009820048</v>
       </c>
       <c r="C17" t="n">
-        <v>217.4132358909391</v>
+        <v>283.0021009820048</v>
       </c>
       <c r="D17" t="n">
-        <v>217.4132358909391</v>
+        <v>283.0021009820048</v>
       </c>
       <c r="E17" t="n">
-        <v>217.4132358909391</v>
+        <v>283.0021009820048</v>
       </c>
       <c r="F17" t="n">
-        <v>217.4132358909391</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="G17" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="H17" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="I17" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J17" t="n">
-        <v>34.63453816531485</v>
+        <v>34.63453816531492</v>
       </c>
       <c r="K17" t="n">
-        <v>110.3989492755376</v>
+        <v>110.3989492755378</v>
       </c>
       <c r="L17" t="n">
-        <v>241.2931626632192</v>
+        <v>241.2931626632198</v>
       </c>
       <c r="M17" t="n">
-        <v>418.6076331159529</v>
+        <v>418.6076331159538</v>
       </c>
       <c r="N17" t="n">
-        <v>603.4050454560168</v>
+        <v>603.4050454560177</v>
       </c>
       <c r="O17" t="n">
-        <v>764.5687404436244</v>
+        <v>764.5687404436255</v>
       </c>
       <c r="P17" t="n">
-        <v>867.6172246027296</v>
+        <v>867.6172246027309</v>
       </c>
       <c r="Q17" t="n">
-        <v>896.8295980501243</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="R17" t="n">
-        <v>896.8295980501243</v>
+        <v>893.4040476878413</v>
       </c>
       <c r="S17" t="n">
-        <v>896.8295980501243</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="T17" t="n">
-        <v>896.8295980501243</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="U17" t="n">
-        <v>896.8295980501243</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="V17" t="n">
-        <v>670.3574773303959</v>
+        <v>735.9463424214623</v>
       </c>
       <c r="W17" t="n">
-        <v>443.8853566106675</v>
+        <v>509.4742217017335</v>
       </c>
       <c r="X17" t="n">
-        <v>443.8853566106675</v>
+        <v>509.4742217017335</v>
       </c>
       <c r="Y17" t="n">
-        <v>443.8853566106675</v>
+        <v>283.0021009820048</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>473.2505750553087</v>
+        <v>304.3415769205072</v>
       </c>
       <c r="C18" t="n">
-        <v>473.2505750553087</v>
+        <v>304.3415769205072</v>
       </c>
       <c r="D18" t="n">
-        <v>473.2505750553087</v>
+        <v>155.4071672592559</v>
       </c>
       <c r="E18" t="n">
-        <v>314.0131200498532</v>
+        <v>155.4071672592559</v>
       </c>
       <c r="F18" t="n">
-        <v>167.4785620767381</v>
+        <v>155.4071672592559</v>
       </c>
       <c r="G18" t="n">
-        <v>30.00798677848471</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="H18" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="I18" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J18" t="n">
-        <v>64.32476682722822</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="K18" t="n">
-        <v>127.3147945504696</v>
+        <v>127.3147945504704</v>
       </c>
       <c r="L18" t="n">
-        <v>258.3352014317575</v>
+        <v>258.3352014317584</v>
       </c>
       <c r="M18" t="n">
-        <v>430.5867046011359</v>
+        <v>430.5867046011369</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8058374248108</v>
+        <v>621.8058374248119</v>
       </c>
       <c r="O18" t="n">
-        <v>774.5141910698743</v>
+        <v>774.5141910698756</v>
       </c>
       <c r="P18" t="n">
-        <v>877.7430416330328</v>
+        <v>877.7430416330341</v>
       </c>
       <c r="Q18" t="n">
-        <v>896.8295980501243</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="R18" t="n">
-        <v>896.8295980501243</v>
+        <v>873.9061242452021</v>
       </c>
       <c r="S18" t="n">
-        <v>896.8295980501243</v>
+        <v>873.9061242452021</v>
       </c>
       <c r="T18" t="n">
-        <v>699.7226957750371</v>
+        <v>676.7992219701149</v>
       </c>
       <c r="U18" t="n">
-        <v>473.2505750553087</v>
+        <v>450.3271012503861</v>
       </c>
       <c r="V18" t="n">
-        <v>473.2505750553087</v>
+        <v>450.3271012503861</v>
       </c>
       <c r="W18" t="n">
-        <v>473.2505750553087</v>
+        <v>450.3271012503861</v>
       </c>
       <c r="X18" t="n">
-        <v>473.2505750553087</v>
+        <v>450.3271012503861</v>
       </c>
       <c r="Y18" t="n">
-        <v>473.2505750553087</v>
+        <v>450.3271012503861</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.3709396138089</v>
+        <v>330.9130518439898</v>
       </c>
       <c r="C19" t="n">
-        <v>481.3709396138089</v>
+        <v>330.9130518439898</v>
       </c>
       <c r="D19" t="n">
-        <v>481.3709396138089</v>
+        <v>330.9130518439898</v>
       </c>
       <c r="E19" t="n">
-        <v>333.4578460314158</v>
+        <v>330.9130518439898</v>
       </c>
       <c r="F19" t="n">
-        <v>186.5678985335054</v>
+        <v>184.0231043460795</v>
       </c>
       <c r="G19" t="n">
-        <v>17.93659196100249</v>
+        <v>184.0231043460795</v>
       </c>
       <c r="H19" t="n">
-        <v>17.93659196100249</v>
+        <v>143.1838926463842</v>
       </c>
       <c r="I19" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J19" t="n">
-        <v>17.93659196100249</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="K19" t="n">
-        <v>17.93659196100249</v>
+        <v>18.64088125094105</v>
       </c>
       <c r="L19" t="n">
-        <v>198.498721524839</v>
+        <v>199.9094798241555</v>
       </c>
       <c r="M19" t="n">
-        <v>400.0101660818613</v>
+        <v>401.4209243811779</v>
       </c>
       <c r="N19" t="n">
-        <v>602.1647353093954</v>
+        <v>603.575493608712</v>
       </c>
       <c r="O19" t="n">
-        <v>772.870904141703</v>
+        <v>774.2816624410198</v>
       </c>
       <c r="P19" t="n">
-        <v>895.4188397508088</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="Q19" t="n">
-        <v>896.8295980501243</v>
+        <v>896.8295980501257</v>
       </c>
       <c r="R19" t="n">
-        <v>896.8295980501243</v>
+        <v>765.2517557262045</v>
       </c>
       <c r="S19" t="n">
-        <v>688.9630148876385</v>
+        <v>557.3851725637186</v>
       </c>
       <c r="T19" t="n">
-        <v>688.9630148876385</v>
+        <v>557.3851725637186</v>
       </c>
       <c r="U19" t="n">
-        <v>688.9630148876385</v>
+        <v>557.3851725637186</v>
       </c>
       <c r="V19" t="n">
-        <v>688.9630148876385</v>
+        <v>330.9130518439898</v>
       </c>
       <c r="W19" t="n">
-        <v>481.3709396138089</v>
+        <v>330.9130518439898</v>
       </c>
       <c r="X19" t="n">
-        <v>481.3709396138089</v>
+        <v>330.9130518439898</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.3709396138089</v>
+        <v>330.9130518439898</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>451.893347599688</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="C20" t="n">
-        <v>451.893347599688</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="D20" t="n">
-        <v>225.4212268799593</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="E20" t="n">
-        <v>225.4212268799593</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="F20" t="n">
-        <v>225.4212268799593</v>
+        <v>244.4087126807314</v>
       </c>
       <c r="G20" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H20" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I20" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J20" t="n">
-        <v>34.63453816531492</v>
+        <v>34.63453816531484</v>
       </c>
       <c r="K20" t="n">
-        <v>110.3989492755378</v>
+        <v>110.3989492755379</v>
       </c>
       <c r="L20" t="n">
-        <v>241.2931626632198</v>
+        <v>241.2931626632197</v>
       </c>
       <c r="M20" t="n">
         <v>418.6076331159538</v>
       </c>
       <c r="N20" t="n">
-        <v>603.4050454560177</v>
+        <v>603.4050454560179</v>
       </c>
       <c r="O20" t="n">
-        <v>764.5687404436255</v>
+        <v>764.5687404436258</v>
       </c>
       <c r="P20" t="n">
-        <v>867.6172246027309</v>
+        <v>867.6172246027312</v>
       </c>
       <c r="Q20" t="n">
-        <v>896.8295980501257</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R20" t="n">
-        <v>893.4040476878413</v>
+        <v>893.4040476878416</v>
       </c>
       <c r="S20" t="n">
-        <v>893.4040476878413</v>
+        <v>735.9463424214626</v>
       </c>
       <c r="T20" t="n">
-        <v>678.3654683194168</v>
+        <v>520.9077630530383</v>
       </c>
       <c r="U20" t="n">
-        <v>678.3654683194168</v>
+        <v>520.9077630530383</v>
       </c>
       <c r="V20" t="n">
-        <v>678.3654683194168</v>
+        <v>520.9077630530383</v>
       </c>
       <c r="W20" t="n">
-        <v>451.893347599688</v>
+        <v>520.9077630530383</v>
       </c>
       <c r="X20" t="n">
-        <v>451.893347599688</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="Y20" t="n">
-        <v>451.893347599688</v>
+        <v>470.8808334004602</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>450.8761348936222</v>
+        <v>294.3818415453752</v>
       </c>
       <c r="C21" t="n">
-        <v>450.8761348936222</v>
+        <v>119.9288122642482</v>
       </c>
       <c r="D21" t="n">
-        <v>301.9417252323709</v>
+        <v>119.9288122642482</v>
       </c>
       <c r="E21" t="n">
-        <v>301.9417252323709</v>
+        <v>119.9288122642482</v>
       </c>
       <c r="F21" t="n">
-        <v>155.4071672592559</v>
+        <v>119.9288122642482</v>
       </c>
       <c r="G21" t="n">
-        <v>17.93659196100251</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="H21" t="n">
-        <v>17.93659196100251</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="I21" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J21" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K21" t="n">
-        <v>80.92661968424395</v>
+        <v>80.92661968424396</v>
       </c>
       <c r="L21" t="n">
         <v>211.947026565532</v>
       </c>
       <c r="M21" t="n">
-        <v>384.1985297349105</v>
+        <v>384.1985297349106</v>
       </c>
       <c r="N21" t="n">
-        <v>575.4176625585854</v>
+        <v>575.4176625585856</v>
       </c>
       <c r="O21" t="n">
         <v>728.1260162036492</v>
@@ -5852,31 +5852,31 @@
         <v>831.3548667668078</v>
       </c>
       <c r="Q21" t="n">
-        <v>896.8295980501257</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R21" t="n">
-        <v>873.9061242452021</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S21" t="n">
-        <v>723.8973729174504</v>
+        <v>896.829598050126</v>
       </c>
       <c r="T21" t="n">
-        <v>677.3482556133509</v>
+        <v>896.829598050126</v>
       </c>
       <c r="U21" t="n">
-        <v>677.3482556133509</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="V21" t="n">
-        <v>677.3482556133509</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="W21" t="n">
-        <v>450.8761348936222</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="X21" t="n">
-        <v>450.8761348936222</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="Y21" t="n">
-        <v>450.8761348936222</v>
+        <v>462.5971785654432</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>319.298668135446</v>
+        <v>336.9894143012451</v>
       </c>
       <c r="C22" t="n">
-        <v>319.298668135446</v>
+        <v>168.0532313733382</v>
       </c>
       <c r="D22" t="n">
-        <v>319.298668135446</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="E22" t="n">
-        <v>319.298668135446</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="F22" t="n">
-        <v>172.4087206375356</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="G22" t="n">
-        <v>172.4087206375356</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H22" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I22" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J22" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K22" t="n">
-        <v>18.64088125094105</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="L22" t="n">
-        <v>199.9094798241555</v>
+        <v>199.205190534217</v>
       </c>
       <c r="M22" t="n">
-        <v>401.4209243811779</v>
+        <v>400.7166350912394</v>
       </c>
       <c r="N22" t="n">
-        <v>603.575493608712</v>
+        <v>602.8712043187735</v>
       </c>
       <c r="O22" t="n">
-        <v>774.2816624410198</v>
+        <v>772.8709041417045</v>
       </c>
       <c r="P22" t="n">
-        <v>896.8295980501257</v>
+        <v>895.4188397508104</v>
       </c>
       <c r="Q22" t="n">
-        <v>896.8295980501257</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R22" t="n">
-        <v>896.8295980501257</v>
+        <v>789.9336557407028</v>
       </c>
       <c r="S22" t="n">
-        <v>896.8295980501257</v>
+        <v>789.9336557407028</v>
       </c>
       <c r="T22" t="n">
-        <v>896.8295980501257</v>
+        <v>789.9336557407028</v>
       </c>
       <c r="U22" t="n">
-        <v>896.8295980501257</v>
+        <v>563.461535020974</v>
       </c>
       <c r="V22" t="n">
-        <v>670.3574773303969</v>
+        <v>563.461535020974</v>
       </c>
       <c r="W22" t="n">
-        <v>443.8853566106682</v>
+        <v>563.461535020974</v>
       </c>
       <c r="X22" t="n">
-        <v>319.298668135446</v>
+        <v>336.9894143012451</v>
       </c>
       <c r="Y22" t="n">
-        <v>319.298668135446</v>
+        <v>336.9894143012451</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>286.4276513442894</v>
+        <v>509.4742217017338</v>
       </c>
       <c r="C23" t="n">
-        <v>286.4276513442894</v>
+        <v>509.4742217017338</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4276513442894</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="E23" t="n">
-        <v>139.7319410114036</v>
+        <v>244.4087126807314</v>
       </c>
       <c r="F23" t="n">
-        <v>139.7319410114036</v>
+        <v>244.4087126807314</v>
       </c>
       <c r="G23" t="n">
-        <v>139.7319410114036</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H23" t="n">
-        <v>139.7319410114036</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I23" t="n">
         <v>17.93659196100252</v>
       </c>
       <c r="J23" t="n">
-        <v>34.63453816531484</v>
+        <v>34.63453816531494</v>
       </c>
       <c r="K23" t="n">
-        <v>110.3989492755379</v>
+        <v>110.3989492755378</v>
       </c>
       <c r="L23" t="n">
-        <v>241.2931626632197</v>
+        <v>241.2931626632196</v>
       </c>
       <c r="M23" t="n">
         <v>418.6076331159538</v>
@@ -6013,28 +6013,28 @@
         <v>896.829598050126</v>
       </c>
       <c r="R23" t="n">
-        <v>896.829598050126</v>
+        <v>893.4040476878416</v>
       </c>
       <c r="S23" t="n">
-        <v>739.3718927837471</v>
+        <v>735.9463424214626</v>
       </c>
       <c r="T23" t="n">
-        <v>739.3718927837471</v>
+        <v>735.9463424214626</v>
       </c>
       <c r="U23" t="n">
-        <v>739.3718927837471</v>
+        <v>735.9463424214626</v>
       </c>
       <c r="V23" t="n">
-        <v>739.3718927837471</v>
+        <v>735.9463424214626</v>
       </c>
       <c r="W23" t="n">
-        <v>739.3718927837471</v>
+        <v>735.9463424214626</v>
       </c>
       <c r="X23" t="n">
-        <v>512.8997720640182</v>
+        <v>735.9463424214626</v>
       </c>
       <c r="Y23" t="n">
-        <v>512.8997720640182</v>
+        <v>735.9463424214626</v>
       </c>
     </row>
     <row r="24">
@@ -6071,16 +6071,16 @@
         <v>17.93659196100252</v>
       </c>
       <c r="K24" t="n">
-        <v>80.92661968424396</v>
+        <v>127.3147945504706</v>
       </c>
       <c r="L24" t="n">
-        <v>211.947026565532</v>
+        <v>258.3352014317587</v>
       </c>
       <c r="M24" t="n">
-        <v>384.1985297349106</v>
+        <v>430.5867046011372</v>
       </c>
       <c r="N24" t="n">
-        <v>575.4176625585856</v>
+        <v>621.8058374248121</v>
       </c>
       <c r="O24" t="n">
         <v>774.5141910698758</v>
@@ -6092,22 +6092,22 @@
         <v>896.829598050126</v>
       </c>
       <c r="R24" t="n">
-        <v>873.9061242452025</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S24" t="n">
-        <v>723.8973729174506</v>
+        <v>896.829598050126</v>
       </c>
       <c r="T24" t="n">
-        <v>697.352954120189</v>
+        <v>896.829598050126</v>
       </c>
       <c r="U24" t="n">
-        <v>470.8808334004602</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="V24" t="n">
-        <v>244.4087126807314</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="W24" t="n">
-        <v>17.93659196100252</v>
+        <v>217.4132358909395</v>
       </c>
       <c r="X24" t="n">
         <v>17.93659196100252</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.93659196100252</v>
+        <v>444.6237630345207</v>
       </c>
       <c r="C25" t="n">
-        <v>17.93659196100252</v>
+        <v>444.6237630345207</v>
       </c>
       <c r="D25" t="n">
-        <v>17.93659196100252</v>
+        <v>444.6237630345207</v>
       </c>
       <c r="E25" t="n">
-        <v>17.93659196100252</v>
+        <v>444.6237630345207</v>
       </c>
       <c r="F25" t="n">
-        <v>17.93659196100252</v>
+        <v>341.0400272100385</v>
       </c>
       <c r="G25" t="n">
-        <v>17.93659196100252</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="H25" t="n">
         <v>17.93659196100252</v>
@@ -6150,49 +6150,49 @@
         <v>17.93659196100252</v>
       </c>
       <c r="K25" t="n">
-        <v>18.64088125094139</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="L25" t="n">
-        <v>199.9094798241559</v>
+        <v>198.4987215248403</v>
       </c>
       <c r="M25" t="n">
-        <v>401.4209243811782</v>
+        <v>400.0101660818626</v>
       </c>
       <c r="N25" t="n">
-        <v>603.5754936087123</v>
+        <v>602.1647353093967</v>
       </c>
       <c r="O25" t="n">
-        <v>774.2816624410201</v>
+        <v>772.8709041417045</v>
       </c>
       <c r="P25" t="n">
-        <v>896.829598050126</v>
+        <v>895.4188397508104</v>
       </c>
       <c r="Q25" t="n">
         <v>896.829598050126</v>
       </c>
       <c r="R25" t="n">
-        <v>765.2517557262047</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S25" t="n">
-        <v>765.2517557262047</v>
+        <v>896.829598050126</v>
       </c>
       <c r="T25" t="n">
-        <v>539.5180414303281</v>
+        <v>671.0958837542495</v>
       </c>
       <c r="U25" t="n">
-        <v>313.0459207105993</v>
+        <v>444.6237630345207</v>
       </c>
       <c r="V25" t="n">
-        <v>86.5737999908705</v>
+        <v>444.6237630345207</v>
       </c>
       <c r="W25" t="n">
-        <v>17.93659196100252</v>
+        <v>444.6237630345207</v>
       </c>
       <c r="X25" t="n">
-        <v>17.93659196100252</v>
+        <v>444.6237630345207</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.93659196100252</v>
+        <v>444.6237630345207</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>244.4087126807314</v>
       </c>
       <c r="D26" t="n">
-        <v>17.93659196100252</v>
+        <v>244.4087126807314</v>
       </c>
       <c r="E26" t="n">
         <v>17.93659196100252</v>
@@ -6226,7 +6226,7 @@
         <v>17.93659196100252</v>
       </c>
       <c r="J26" t="n">
-        <v>34.63453816531484</v>
+        <v>34.63453816531495</v>
       </c>
       <c r="K26" t="n">
         <v>110.3989492755379</v>
@@ -6235,10 +6235,10 @@
         <v>241.2931626632197</v>
       </c>
       <c r="M26" t="n">
-        <v>418.6076331159538</v>
+        <v>418.6076331159541</v>
       </c>
       <c r="N26" t="n">
-        <v>603.4050454560179</v>
+        <v>603.405045456018</v>
       </c>
       <c r="O26" t="n">
         <v>764.5687404436258</v>
@@ -6256,22 +6256,22 @@
         <v>893.4040476878416</v>
       </c>
       <c r="T26" t="n">
+        <v>893.4040476878416</v>
+      </c>
+      <c r="U26" t="n">
         <v>697.352954120189</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
+        <v>697.352954120189</v>
+      </c>
+      <c r="W26" t="n">
+        <v>697.352954120189</v>
+      </c>
+      <c r="X26" t="n">
+        <v>697.352954120189</v>
+      </c>
+      <c r="Y26" t="n">
         <v>470.8808334004602</v>
-      </c>
-      <c r="V26" t="n">
-        <v>470.8808334004602</v>
-      </c>
-      <c r="W26" t="n">
-        <v>244.4087126807314</v>
-      </c>
-      <c r="X26" t="n">
-        <v>244.4087126807314</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>244.4087126807314</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>502.1421403103291</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="C27" t="n">
-        <v>502.1421403103291</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="D27" t="n">
-        <v>502.1421403103291</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="E27" t="n">
-        <v>342.9046853048736</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="F27" t="n">
-        <v>196.3701273317586</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="G27" t="n">
-        <v>58.89955203350519</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="H27" t="n">
-        <v>17.93659196100252</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="I27" t="n">
         <v>17.93659196100252</v>
       </c>
       <c r="J27" t="n">
-        <v>17.93659196100252</v>
+        <v>64.32476682722915</v>
       </c>
       <c r="K27" t="n">
-        <v>80.92661968424396</v>
+        <v>127.3147945504706</v>
       </c>
       <c r="L27" t="n">
-        <v>211.947026565532</v>
+        <v>258.3352014317587</v>
       </c>
       <c r="M27" t="n">
         <v>430.5867046011372</v>
@@ -6338,19 +6338,19 @@
         <v>896.829598050126</v>
       </c>
       <c r="U27" t="n">
-        <v>896.829598050126</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="V27" t="n">
-        <v>896.829598050126</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="W27" t="n">
-        <v>670.3574773303972</v>
+        <v>217.4132358909395</v>
       </c>
       <c r="X27" t="n">
-        <v>670.3574773303972</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="Y27" t="n">
-        <v>670.3574773303972</v>
+        <v>64.8460305986753</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.5065284925623</v>
+        <v>312.739633041306</v>
       </c>
       <c r="C28" t="n">
-        <v>335.5703455646554</v>
+        <v>312.739633041306</v>
       </c>
       <c r="D28" t="n">
-        <v>185.4537061523197</v>
+        <v>312.739633041306</v>
       </c>
       <c r="E28" t="n">
-        <v>37.54061256992657</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="F28" t="n">
-        <v>37.54061256992657</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="G28" t="n">
-        <v>37.54061256992657</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H28" t="n">
-        <v>37.54061256992657</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I28" t="n">
-        <v>37.54061256992657</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J28" t="n">
         <v>17.93659196100252</v>
       </c>
       <c r="K28" t="n">
-        <v>116.1990877137129</v>
+        <v>18.64088125094139</v>
       </c>
       <c r="L28" t="n">
-        <v>297.4676862869273</v>
+        <v>199.9094798241559</v>
       </c>
       <c r="M28" t="n">
-        <v>498.9791308439497</v>
+        <v>401.4209243811782</v>
       </c>
       <c r="N28" t="n">
-        <v>701.1337000714839</v>
+        <v>603.5754936087123</v>
       </c>
       <c r="O28" t="n">
-        <v>871.8398689037916</v>
+        <v>774.2816624410201</v>
       </c>
       <c r="P28" t="n">
         <v>896.829598050126</v>
@@ -6408,28 +6408,28 @@
         <v>896.829598050126</v>
       </c>
       <c r="R28" t="n">
-        <v>765.2517557262047</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S28" t="n">
-        <v>765.2517557262047</v>
+        <v>688.9630148876402</v>
       </c>
       <c r="T28" t="n">
-        <v>765.2517557262047</v>
+        <v>688.9630148876402</v>
       </c>
       <c r="U28" t="n">
-        <v>765.2517557262047</v>
+        <v>688.9630148876402</v>
       </c>
       <c r="V28" t="n">
-        <v>765.2517557262047</v>
+        <v>688.9630148876402</v>
       </c>
       <c r="W28" t="n">
-        <v>765.2517557262047</v>
+        <v>688.9630148876402</v>
       </c>
       <c r="X28" t="n">
-        <v>686.1549933228021</v>
+        <v>462.4908941679113</v>
       </c>
       <c r="Y28" t="n">
-        <v>686.1549933228021</v>
+        <v>462.4908941679113</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>244.4087126807314</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="C29" t="n">
-        <v>244.4087126807314</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="D29" t="n">
-        <v>244.4087126807314</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="E29" t="n">
-        <v>244.4087126807314</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="F29" t="n">
-        <v>244.4087126807314</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="G29" t="n">
-        <v>244.4087126807314</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="H29" t="n">
-        <v>17.93659196100253</v>
+        <v>139.7319410114036</v>
       </c>
       <c r="I29" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J29" t="n">
-        <v>34.63453816531535</v>
+        <v>34.63453816531495</v>
       </c>
       <c r="K29" t="n">
-        <v>110.3989492755385</v>
+        <v>110.3989492755379</v>
       </c>
       <c r="L29" t="n">
-        <v>241.2931626632204</v>
+        <v>241.2931626632197</v>
       </c>
       <c r="M29" t="n">
-        <v>418.6076331159544</v>
+        <v>418.6076331159541</v>
       </c>
       <c r="N29" t="n">
-        <v>603.4050454560183</v>
+        <v>603.405045456018</v>
       </c>
       <c r="O29" t="n">
-        <v>764.5687404436262</v>
+        <v>764.5687404436258</v>
       </c>
       <c r="P29" t="n">
-        <v>867.6172246027314</v>
+        <v>867.6172246027312</v>
       </c>
       <c r="Q29" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R29" t="n">
-        <v>893.4040476878419</v>
+        <v>893.4040476878416</v>
       </c>
       <c r="S29" t="n">
-        <v>735.9463424214629</v>
+        <v>735.9463424214626</v>
       </c>
       <c r="T29" t="n">
-        <v>520.9077630530385</v>
+        <v>520.9077630530383</v>
       </c>
       <c r="U29" t="n">
-        <v>470.8808334004603</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="V29" t="n">
-        <v>470.8808334004603</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="W29" t="n">
-        <v>470.8808334004603</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="X29" t="n">
-        <v>470.8808334004603</v>
+        <v>294.4356423333094</v>
       </c>
       <c r="Y29" t="n">
-        <v>470.8808334004603</v>
+        <v>294.4356423333094</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.6612682628486</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="C30" t="n">
-        <v>125.6612682628486</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="D30" t="n">
-        <v>125.6612682628486</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="E30" t="n">
-        <v>125.6612682628486</v>
+        <v>284.6479016052128</v>
       </c>
       <c r="F30" t="n">
-        <v>64.84603059867531</v>
+        <v>256.604939859016</v>
       </c>
       <c r="G30" t="n">
-        <v>64.84603059867531</v>
+        <v>119.1343645607626</v>
       </c>
       <c r="H30" t="n">
-        <v>64.84603059867531</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I30" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J30" t="n">
-        <v>64.32476682722938</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K30" t="n">
-        <v>127.3147945504708</v>
+        <v>80.92661968424396</v>
       </c>
       <c r="L30" t="n">
-        <v>258.3352014317589</v>
+        <v>211.947026565532</v>
       </c>
       <c r="M30" t="n">
-        <v>430.5867046011374</v>
+        <v>384.1985297349106</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8058374248124</v>
+        <v>575.4176625585856</v>
       </c>
       <c r="O30" t="n">
-        <v>774.514191069876</v>
+        <v>728.1260162036492</v>
       </c>
       <c r="P30" t="n">
-        <v>877.7430416330346</v>
+        <v>877.7430416330344</v>
       </c>
       <c r="Q30" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R30" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S30" t="n">
-        <v>746.8208467223744</v>
+        <v>896.829598050126</v>
       </c>
       <c r="T30" t="n">
-        <v>746.8208467223744</v>
+        <v>896.829598050126</v>
       </c>
       <c r="U30" t="n">
-        <v>520.3487260026455</v>
+        <v>896.829598050126</v>
       </c>
       <c r="V30" t="n">
-        <v>293.8766052829167</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="W30" t="n">
-        <v>293.8766052829167</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="X30" t="n">
-        <v>293.8766052829167</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="Y30" t="n">
-        <v>293.8766052829167</v>
+        <v>443.8853566106683</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>502.3940289593227</v>
+        <v>330.91305184399</v>
       </c>
       <c r="C31" t="n">
-        <v>333.4578460314158</v>
+        <v>330.91305184399</v>
       </c>
       <c r="D31" t="n">
-        <v>333.4578460314158</v>
+        <v>312.739633041306</v>
       </c>
       <c r="E31" t="n">
-        <v>333.4578460314158</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="F31" t="n">
-        <v>186.5678985335055</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="G31" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H31" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I31" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J31" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K31" t="n">
-        <v>116.1990877137129</v>
+        <v>18.64088125094139</v>
       </c>
       <c r="L31" t="n">
-        <v>297.4676862869273</v>
+        <v>199.9094798241559</v>
       </c>
       <c r="M31" t="n">
-        <v>498.9791308439497</v>
+        <v>401.4209243811782</v>
       </c>
       <c r="N31" t="n">
-        <v>701.1337000714839</v>
+        <v>603.5754936087123</v>
       </c>
       <c r="O31" t="n">
-        <v>871.8398689037916</v>
+        <v>774.2816624410201</v>
       </c>
       <c r="P31" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="Q31" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R31" t="n">
-        <v>896.8295980501263</v>
+        <v>765.2517557262047</v>
       </c>
       <c r="S31" t="n">
-        <v>896.8295980501263</v>
+        <v>557.3851725637188</v>
       </c>
       <c r="T31" t="n">
-        <v>896.8295980501263</v>
+        <v>557.3851725637188</v>
       </c>
       <c r="U31" t="n">
-        <v>896.8295980501263</v>
+        <v>557.3851725637188</v>
       </c>
       <c r="V31" t="n">
-        <v>684.0424937895624</v>
+        <v>557.3851725637188</v>
       </c>
       <c r="W31" t="n">
-        <v>684.0424937895624</v>
+        <v>330.91305184399</v>
       </c>
       <c r="X31" t="n">
-        <v>684.0424937895624</v>
+        <v>330.91305184399</v>
       </c>
       <c r="Y31" t="n">
-        <v>684.0424937895624</v>
+        <v>330.91305184399</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>244.4087126807314</v>
+        <v>286.4276513442894</v>
       </c>
       <c r="C32" t="n">
-        <v>244.4087126807314</v>
+        <v>286.4276513442894</v>
       </c>
       <c r="D32" t="n">
-        <v>244.4087126807314</v>
+        <v>286.4276513442894</v>
       </c>
       <c r="E32" t="n">
-        <v>244.4087126807314</v>
+        <v>286.4276513442894</v>
       </c>
       <c r="F32" t="n">
         <v>244.4087126807314</v>
       </c>
       <c r="G32" t="n">
-        <v>17.93659196100253</v>
+        <v>244.4087126807314</v>
       </c>
       <c r="H32" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I32" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J32" t="n">
-        <v>34.63453816531496</v>
+        <v>34.63453816531511</v>
       </c>
       <c r="K32" t="n">
-        <v>110.3989492755379</v>
+        <v>110.398949275538</v>
       </c>
       <c r="L32" t="n">
-        <v>241.2931626632197</v>
+        <v>241.2931626632199</v>
       </c>
       <c r="M32" t="n">
-        <v>418.6076331159543</v>
+        <v>418.6076331159541</v>
       </c>
       <c r="N32" t="n">
-        <v>603.4050454560182</v>
+        <v>603.405045456018</v>
       </c>
       <c r="O32" t="n">
-        <v>764.568740443626</v>
+        <v>764.5687404436258</v>
       </c>
       <c r="P32" t="n">
-        <v>867.6172246027314</v>
+        <v>867.6172246027312</v>
       </c>
       <c r="Q32" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R32" t="n">
-        <v>893.4040476878419</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S32" t="n">
-        <v>735.9463424214629</v>
+        <v>739.3718927837471</v>
       </c>
       <c r="T32" t="n">
-        <v>520.9077630530385</v>
+        <v>739.3718927837471</v>
       </c>
       <c r="U32" t="n">
-        <v>520.9077630530385</v>
+        <v>512.8997720640182</v>
       </c>
       <c r="V32" t="n">
-        <v>294.4356423333096</v>
+        <v>286.4276513442894</v>
       </c>
       <c r="W32" t="n">
-        <v>244.4087126807314</v>
+        <v>286.4276513442894</v>
       </c>
       <c r="X32" t="n">
-        <v>244.4087126807314</v>
+        <v>286.4276513442894</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.4087126807314</v>
+        <v>286.4276513442894</v>
       </c>
     </row>
     <row r="33">
@@ -6755,70 +6755,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>192.3896212421296</v>
+        <v>192.3896212421295</v>
       </c>
       <c r="C33" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="D33" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="E33" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="F33" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="G33" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H33" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I33" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J33" t="n">
-        <v>64.32476682722938</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K33" t="n">
-        <v>127.3147945504708</v>
+        <v>80.92661968424396</v>
       </c>
       <c r="L33" t="n">
-        <v>258.3352014317589</v>
+        <v>211.947026565532</v>
       </c>
       <c r="M33" t="n">
-        <v>430.5867046011374</v>
+        <v>384.1985297349106</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8058374248124</v>
+        <v>575.4176625585856</v>
       </c>
       <c r="O33" t="n">
-        <v>774.514191069876</v>
+        <v>728.1260162036492</v>
       </c>
       <c r="P33" t="n">
-        <v>877.7430416330346</v>
+        <v>831.3548667668078</v>
       </c>
       <c r="Q33" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R33" t="n">
-        <v>896.8295980501263</v>
+        <v>873.9061242452025</v>
       </c>
       <c r="S33" t="n">
-        <v>896.8295980501263</v>
+        <v>723.8973729174506</v>
       </c>
       <c r="T33" t="n">
-        <v>896.8295980501263</v>
+        <v>723.8973729174506</v>
       </c>
       <c r="U33" t="n">
-        <v>896.8295980501263</v>
+        <v>568.3652570271515</v>
       </c>
       <c r="V33" t="n">
-        <v>776.2167572326844</v>
+        <v>568.3652570271515</v>
       </c>
       <c r="W33" t="n">
-        <v>776.2167572326844</v>
+        <v>568.3652570271515</v>
       </c>
       <c r="X33" t="n">
         <v>568.3652570271515</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>186.8727748889094</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="C34" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="D34" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="E34" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="F34" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="G34" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H34" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I34" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J34" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K34" t="n">
-        <v>116.1990877137129</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="L34" t="n">
-        <v>297.4676862869273</v>
+        <v>199.205190534217</v>
       </c>
       <c r="M34" t="n">
-        <v>498.9791308439497</v>
+        <v>400.7166350912394</v>
       </c>
       <c r="N34" t="n">
-        <v>701.1337000714839</v>
+        <v>602.8712043187735</v>
       </c>
       <c r="O34" t="n">
-        <v>871.8398689037916</v>
+        <v>773.5773731510812</v>
       </c>
       <c r="P34" t="n">
-        <v>896.8295980501263</v>
+        <v>896.1253087601872</v>
       </c>
       <c r="Q34" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R34" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S34" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="T34" t="n">
-        <v>671.0958837542497</v>
+        <v>697.352954120189</v>
       </c>
       <c r="U34" t="n">
-        <v>594.993360438878</v>
+        <v>697.352954120189</v>
       </c>
       <c r="V34" t="n">
-        <v>594.993360438878</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="W34" t="n">
-        <v>368.5212397191492</v>
+        <v>244.4087126807314</v>
       </c>
       <c r="X34" t="n">
-        <v>368.5212397191492</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="Y34" t="n">
-        <v>368.5212397191492</v>
+        <v>17.93659196100252</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.435642333309</v>
+        <v>896.829598050126</v>
       </c>
       <c r="C35" t="n">
-        <v>294.435642333309</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="D35" t="n">
-        <v>294.435642333309</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="E35" t="n">
-        <v>294.435642333309</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="F35" t="n">
-        <v>244.4087126807312</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="G35" t="n">
-        <v>244.4087126807312</v>
+        <v>217.4132358909395</v>
       </c>
       <c r="H35" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I35" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J35" t="n">
-        <v>34.63453816531492</v>
+        <v>34.63453816531494</v>
       </c>
       <c r="K35" t="n">
         <v>110.3989492755378</v>
       </c>
       <c r="L35" t="n">
-        <v>241.2931626632198</v>
+        <v>241.2931626632196</v>
       </c>
       <c r="M35" t="n">
         <v>418.6076331159538</v>
       </c>
       <c r="N35" t="n">
-        <v>603.4050454560177</v>
+        <v>603.4050454560179</v>
       </c>
       <c r="O35" t="n">
-        <v>764.5687404436255</v>
+        <v>764.5687404436258</v>
       </c>
       <c r="P35" t="n">
-        <v>867.6172246027309</v>
+        <v>867.6172246027312</v>
       </c>
       <c r="Q35" t="n">
-        <v>896.8295980501257</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R35" t="n">
-        <v>893.4040476878413</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S35" t="n">
-        <v>735.9463424214623</v>
+        <v>896.829598050126</v>
       </c>
       <c r="T35" t="n">
-        <v>520.9077630530378</v>
+        <v>896.829598050126</v>
       </c>
       <c r="U35" t="n">
-        <v>520.9077630530378</v>
+        <v>896.829598050126</v>
       </c>
       <c r="V35" t="n">
-        <v>294.435642333309</v>
+        <v>896.829598050126</v>
       </c>
       <c r="W35" t="n">
-        <v>294.435642333309</v>
+        <v>896.829598050126</v>
       </c>
       <c r="X35" t="n">
-        <v>294.435642333309</v>
+        <v>896.829598050126</v>
       </c>
       <c r="Y35" t="n">
-        <v>294.435642333309</v>
+        <v>896.829598050126</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.63877608482295</v>
+        <v>92.46684971710175</v>
       </c>
       <c r="C36" t="n">
-        <v>57.63877608482295</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="D36" t="n">
-        <v>57.63877608482295</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="E36" t="n">
-        <v>57.63877608482295</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="F36" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="G36" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H36" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I36" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J36" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K36" t="n">
-        <v>80.92661968424395</v>
+        <v>80.92661968424396</v>
       </c>
       <c r="L36" t="n">
         <v>211.947026565532</v>
       </c>
       <c r="M36" t="n">
-        <v>384.1985297349105</v>
+        <v>399.8405119074059</v>
       </c>
       <c r="N36" t="n">
-        <v>575.4176625585854</v>
+        <v>621.8058374248121</v>
       </c>
       <c r="O36" t="n">
-        <v>774.5141910698756</v>
+        <v>774.5141910698758</v>
       </c>
       <c r="P36" t="n">
-        <v>877.7430416330341</v>
+        <v>877.7430416330344</v>
       </c>
       <c r="Q36" t="n">
-        <v>896.8295980501257</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R36" t="n">
-        <v>896.8295980501257</v>
+        <v>873.9061242452025</v>
       </c>
       <c r="S36" t="n">
-        <v>896.8295980501257</v>
+        <v>723.8973729174506</v>
       </c>
       <c r="T36" t="n">
-        <v>699.7226957750385</v>
+        <v>526.7904706423634</v>
       </c>
       <c r="U36" t="n">
-        <v>699.7226957750385</v>
+        <v>526.7904706423634</v>
       </c>
       <c r="V36" t="n">
-        <v>699.7226957750385</v>
+        <v>526.7904706423634</v>
       </c>
       <c r="W36" t="n">
-        <v>473.2505750553097</v>
+        <v>300.3183499226346</v>
       </c>
       <c r="X36" t="n">
-        <v>265.3990748497769</v>
+        <v>92.46684971710175</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.63877608482295</v>
+        <v>92.46684971710175</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>462.8562724536417</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="C37" t="n">
-        <v>462.8562724536417</v>
+        <v>274.9491736827614</v>
       </c>
       <c r="D37" t="n">
-        <v>312.739633041306</v>
+        <v>124.8325342704257</v>
       </c>
       <c r="E37" t="n">
-        <v>164.8265394589129</v>
+        <v>124.8325342704257</v>
       </c>
       <c r="F37" t="n">
-        <v>17.93659196100251</v>
+        <v>124.8325342704257</v>
       </c>
       <c r="G37" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H37" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I37" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J37" t="n">
-        <v>17.93659196100251</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K37" t="n">
-        <v>18.64088125094105</v>
+        <v>18.64088125094139</v>
       </c>
       <c r="L37" t="n">
-        <v>199.9094798241555</v>
+        <v>199.9094798241559</v>
       </c>
       <c r="M37" t="n">
-        <v>401.4209243811779</v>
+        <v>401.4209243811782</v>
       </c>
       <c r="N37" t="n">
-        <v>603.575493608712</v>
+        <v>603.5754936087123</v>
       </c>
       <c r="O37" t="n">
-        <v>774.2816624410198</v>
+        <v>774.2816624410201</v>
       </c>
       <c r="P37" t="n">
-        <v>896.8295980501257</v>
+        <v>896.829598050126</v>
       </c>
       <c r="Q37" t="n">
-        <v>896.8295980501257</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R37" t="n">
-        <v>896.8295980501257</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S37" t="n">
-        <v>688.9630148876398</v>
+        <v>896.829598050126</v>
       </c>
       <c r="T37" t="n">
-        <v>688.9630148876398</v>
+        <v>896.829598050126</v>
       </c>
       <c r="U37" t="n">
-        <v>462.8562724536417</v>
+        <v>896.829598050126</v>
       </c>
       <c r="V37" t="n">
-        <v>462.8562724536417</v>
+        <v>896.829598050126</v>
       </c>
       <c r="W37" t="n">
-        <v>462.8562724536417</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="X37" t="n">
-        <v>462.8562724536417</v>
+        <v>443.8853566106683</v>
       </c>
       <c r="Y37" t="n">
-        <v>462.8562724536417</v>
+        <v>443.8853566106683</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>244.4087126807314</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="C38" t="n">
-        <v>244.4087126807314</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="D38" t="n">
-        <v>244.4087126807314</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="E38" t="n">
-        <v>244.4087126807314</v>
+        <v>470.8808334004602</v>
       </c>
       <c r="F38" t="n">
         <v>244.4087126807314</v>
       </c>
       <c r="G38" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H38" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I38" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J38" t="n">
-        <v>34.63453816531546</v>
+        <v>34.63453816531455</v>
       </c>
       <c r="K38" t="n">
-        <v>110.3989492755386</v>
+        <v>110.3989492755375</v>
       </c>
       <c r="L38" t="n">
-        <v>241.2931626632205</v>
+        <v>241.2931626632193</v>
       </c>
       <c r="M38" t="n">
-        <v>418.6076331159545</v>
+        <v>418.6076331159535</v>
       </c>
       <c r="N38" t="n">
-        <v>603.4050454560183</v>
+        <v>603.4050454560173</v>
       </c>
       <c r="O38" t="n">
-        <v>764.5687404436262</v>
+        <v>764.5687404436253</v>
       </c>
       <c r="P38" t="n">
-        <v>867.6172246027314</v>
+        <v>867.6172246027312</v>
       </c>
       <c r="Q38" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R38" t="n">
-        <v>893.4040476878419</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S38" t="n">
-        <v>893.4040476878419</v>
+        <v>739.3718927837471</v>
       </c>
       <c r="T38" t="n">
-        <v>678.3654683194175</v>
+        <v>739.3718927837471</v>
       </c>
       <c r="U38" t="n">
-        <v>451.8933475996886</v>
+        <v>739.3718927837471</v>
       </c>
       <c r="V38" t="n">
-        <v>244.4087126807314</v>
+        <v>739.3718927837471</v>
       </c>
       <c r="W38" t="n">
-        <v>244.4087126807314</v>
+        <v>739.3718927837471</v>
       </c>
       <c r="X38" t="n">
-        <v>244.4087126807314</v>
+        <v>739.3718927837471</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.4087126807314</v>
+        <v>512.8997720640182</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.93659196100253</v>
+        <v>549.713944447287</v>
       </c>
       <c r="C39" t="n">
-        <v>17.93659196100253</v>
+        <v>549.713944447287</v>
       </c>
       <c r="D39" t="n">
-        <v>17.93659196100253</v>
+        <v>424.9063775393331</v>
       </c>
       <c r="E39" t="n">
-        <v>17.93659196100253</v>
+        <v>265.6689225338776</v>
       </c>
       <c r="F39" t="n">
-        <v>17.93659196100253</v>
+        <v>119.1343645607626</v>
       </c>
       <c r="G39" t="n">
-        <v>17.93659196100253</v>
+        <v>119.1343645607626</v>
       </c>
       <c r="H39" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I39" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J39" t="n">
-        <v>17.93659196100253</v>
+        <v>64.32476682722915</v>
       </c>
       <c r="K39" t="n">
-        <v>127.3147945504708</v>
+        <v>127.3147945504706</v>
       </c>
       <c r="L39" t="n">
-        <v>258.3352014317589</v>
+        <v>258.3352014317587</v>
       </c>
       <c r="M39" t="n">
-        <v>430.5867046011374</v>
+        <v>430.5867046011372</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8058374248124</v>
+        <v>621.8058374248121</v>
       </c>
       <c r="O39" t="n">
-        <v>774.514191069876</v>
+        <v>774.5141910698758</v>
       </c>
       <c r="P39" t="n">
-        <v>877.7430416330346</v>
+        <v>877.7430416330344</v>
       </c>
       <c r="Q39" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R39" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S39" t="n">
-        <v>896.8295980501263</v>
+        <v>746.8208467223742</v>
       </c>
       <c r="T39" t="n">
-        <v>896.8295980501263</v>
+        <v>549.713944447287</v>
       </c>
       <c r="U39" t="n">
-        <v>670.3574773303974</v>
+        <v>549.713944447287</v>
       </c>
       <c r="V39" t="n">
-        <v>443.8853566106685</v>
+        <v>549.713944447287</v>
       </c>
       <c r="W39" t="n">
-        <v>217.4132358909396</v>
+        <v>549.713944447287</v>
       </c>
       <c r="X39" t="n">
-        <v>17.93659196100253</v>
+        <v>549.713944447287</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.93659196100253</v>
+        <v>549.713944447287</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.93659196100253</v>
+        <v>462.8562724536417</v>
       </c>
       <c r="C40" t="n">
-        <v>17.93659196100253</v>
+        <v>462.8562724536417</v>
       </c>
       <c r="D40" t="n">
-        <v>17.93659196100253</v>
+        <v>312.739633041306</v>
       </c>
       <c r="E40" t="n">
-        <v>17.93659196100253</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="F40" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="G40" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="H40" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="I40" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="J40" t="n">
-        <v>17.93659196100253</v>
+        <v>17.93659196100252</v>
       </c>
       <c r="K40" t="n">
-        <v>18.64088125094162</v>
+        <v>18.64088125094139</v>
       </c>
       <c r="L40" t="n">
-        <v>199.9094798241561</v>
+        <v>199.9094798241559</v>
       </c>
       <c r="M40" t="n">
-        <v>401.4209243811785</v>
+        <v>401.4209243811782</v>
       </c>
       <c r="N40" t="n">
-        <v>603.5754936087126</v>
+        <v>603.5754936087123</v>
       </c>
       <c r="O40" t="n">
-        <v>774.2816624410203</v>
+        <v>774.2816624410201</v>
       </c>
       <c r="P40" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="Q40" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="R40" t="n">
-        <v>896.8295980501263</v>
+        <v>896.829598050126</v>
       </c>
       <c r="S40" t="n">
-        <v>688.9630148876404</v>
+        <v>896.829598050126</v>
       </c>
       <c r="T40" t="n">
-        <v>465.2012918242615</v>
+        <v>896.829598050126</v>
       </c>
       <c r="U40" t="n">
-        <v>465.2012918242615</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="V40" t="n">
-        <v>465.2012918242615</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="W40" t="n">
-        <v>238.7291711045326</v>
+        <v>670.3574773303972</v>
       </c>
       <c r="X40" t="n">
-        <v>238.7291711045326</v>
+        <v>462.8562724536417</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.93659196100253</v>
+        <v>462.8562724536417</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>666.9319269681125</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="C41" t="n">
-        <v>440.4598062483838</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="D41" t="n">
-        <v>440.4598062483838</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="E41" t="n">
-        <v>440.4598062483838</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="F41" t="n">
-        <v>213.987685528655</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="G41" t="n">
         <v>17.93659196100251</v>
@@ -7411,52 +7411,52 @@
         <v>17.93659196100251</v>
       </c>
       <c r="J41" t="n">
-        <v>34.63453816531494</v>
+        <v>34.63453816531478</v>
       </c>
       <c r="K41" t="n">
-        <v>110.3989492755379</v>
+        <v>110.3989492755378</v>
       </c>
       <c r="L41" t="n">
         <v>241.2931626632197</v>
       </c>
       <c r="M41" t="n">
-        <v>418.6076331159539</v>
+        <v>418.6076331159537</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4050454560179</v>
+        <v>603.4050454560174</v>
       </c>
       <c r="O41" t="n">
-        <v>764.5687404436256</v>
+        <v>764.5687404436252</v>
       </c>
       <c r="P41" t="n">
-        <v>867.6172246027311</v>
+        <v>867.6172246027307</v>
       </c>
       <c r="Q41" t="n">
-        <v>896.8295980501257</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="R41" t="n">
-        <v>893.4040476878413</v>
+        <v>893.4040476878412</v>
       </c>
       <c r="S41" t="n">
-        <v>893.4040476878413</v>
+        <v>893.4040476878412</v>
       </c>
       <c r="T41" t="n">
-        <v>893.4040476878413</v>
+        <v>678.3654683194168</v>
       </c>
       <c r="U41" t="n">
-        <v>893.4040476878413</v>
+        <v>470.8808334004599</v>
       </c>
       <c r="V41" t="n">
-        <v>893.4040476878413</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="W41" t="n">
-        <v>666.9319269681125</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="X41" t="n">
-        <v>666.9319269681125</v>
+        <v>244.4087126807312</v>
       </c>
       <c r="Y41" t="n">
-        <v>666.9319269681125</v>
+        <v>244.4087126807312</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.01815557062704</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="C42" t="n">
         <v>17.93659196100251</v>
@@ -7493,49 +7493,49 @@
         <v>17.93659196100251</v>
       </c>
       <c r="K42" t="n">
-        <v>80.92661968424395</v>
+        <v>127.3147945504701</v>
       </c>
       <c r="L42" t="n">
-        <v>258.3352014317584</v>
+        <v>258.3352014317582</v>
       </c>
       <c r="M42" t="n">
-        <v>430.5867046011369</v>
+        <v>430.5867046011367</v>
       </c>
       <c r="N42" t="n">
-        <v>621.8058374248119</v>
+        <v>621.8058374248117</v>
       </c>
       <c r="O42" t="n">
-        <v>774.5141910698756</v>
+        <v>774.5141910698753</v>
       </c>
       <c r="P42" t="n">
-        <v>877.7430416330341</v>
+        <v>877.743041633034</v>
       </c>
       <c r="Q42" t="n">
-        <v>896.8295980501257</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="R42" t="n">
-        <v>896.8295980501257</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="S42" t="n">
-        <v>896.8295980501257</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="T42" t="n">
-        <v>699.7226957750385</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="U42" t="n">
-        <v>699.7226957750385</v>
+        <v>678.7323336059928</v>
       </c>
       <c r="V42" t="n">
-        <v>473.2505750553097</v>
+        <v>452.2602128862641</v>
       </c>
       <c r="W42" t="n">
-        <v>246.778454335581</v>
+        <v>225.7880921665353</v>
       </c>
       <c r="X42" t="n">
-        <v>246.778454335581</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.01815557062704</v>
+        <v>17.93659196100251</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>443.8853566106682</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="C43" t="n">
-        <v>443.8853566106682</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="D43" t="n">
-        <v>443.8853566106682</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="E43" t="n">
-        <v>333.4578460314158</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="F43" t="n">
-        <v>186.5678985335054</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="G43" t="n">
         <v>17.93659196100251</v>
@@ -7572,49 +7572,49 @@
         <v>17.93659196100251</v>
       </c>
       <c r="K43" t="n">
-        <v>18.64088125094105</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="L43" t="n">
-        <v>199.9094798241555</v>
+        <v>199.205190534217</v>
       </c>
       <c r="M43" t="n">
-        <v>401.4209243811779</v>
+        <v>400.7166350912394</v>
       </c>
       <c r="N43" t="n">
-        <v>603.575493608712</v>
+        <v>602.8712043187735</v>
       </c>
       <c r="O43" t="n">
-        <v>774.2816624410198</v>
+        <v>773.5773731510812</v>
       </c>
       <c r="P43" t="n">
-        <v>896.8295980501257</v>
+        <v>896.1253087601872</v>
       </c>
       <c r="Q43" t="n">
-        <v>896.8295980501257</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="R43" t="n">
-        <v>896.8295980501257</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="S43" t="n">
-        <v>896.8295980501257</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="T43" t="n">
-        <v>896.8295980501257</v>
+        <v>671.095883754249</v>
       </c>
       <c r="U43" t="n">
-        <v>670.3574773303969</v>
+        <v>444.6237630345203</v>
       </c>
       <c r="V43" t="n">
-        <v>670.3574773303969</v>
+        <v>238.7291711045326</v>
       </c>
       <c r="W43" t="n">
-        <v>443.8853566106682</v>
+        <v>238.7291711045326</v>
       </c>
       <c r="X43" t="n">
-        <v>443.8853566106682</v>
+        <v>238.7291711045326</v>
       </c>
       <c r="Y43" t="n">
-        <v>443.8853566106682</v>
+        <v>17.93659196100251</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>697.3529541201885</v>
+        <v>228.8467772422438</v>
       </c>
       <c r="C44" t="n">
-        <v>470.8808334004599</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="D44" t="n">
-        <v>244.4087126807312</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="E44" t="n">
-        <v>244.4087126807312</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="F44" t="n">
         <v>17.93659196100251</v>
@@ -7648,22 +7648,22 @@
         <v>17.93659196100251</v>
       </c>
       <c r="J44" t="n">
-        <v>34.63453816531478</v>
+        <v>34.63453816531494</v>
       </c>
       <c r="K44" t="n">
-        <v>110.3989492755378</v>
+        <v>110.3989492755376</v>
       </c>
       <c r="L44" t="n">
-        <v>241.2931626632197</v>
+        <v>241.2931626632194</v>
       </c>
       <c r="M44" t="n">
         <v>418.6076331159537</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4050454560174</v>
+        <v>603.4050454560175</v>
       </c>
       <c r="O44" t="n">
-        <v>764.5687404436252</v>
+        <v>764.5687404436253</v>
       </c>
       <c r="P44" t="n">
         <v>867.6172246027307</v>
@@ -7672,28 +7672,28 @@
         <v>896.8295980501256</v>
       </c>
       <c r="R44" t="n">
-        <v>893.4040476878412</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="S44" t="n">
-        <v>893.4040476878412</v>
+        <v>896.8295980501256</v>
       </c>
       <c r="T44" t="n">
-        <v>893.4040476878412</v>
+        <v>681.7910186817012</v>
       </c>
       <c r="U44" t="n">
-        <v>893.4040476878412</v>
+        <v>455.3188979619725</v>
       </c>
       <c r="V44" t="n">
-        <v>697.3529541201885</v>
+        <v>455.3188979619725</v>
       </c>
       <c r="W44" t="n">
-        <v>697.3529541201885</v>
+        <v>455.3188979619725</v>
       </c>
       <c r="X44" t="n">
-        <v>697.3529541201885</v>
+        <v>228.8467772422438</v>
       </c>
       <c r="Y44" t="n">
-        <v>697.3529541201885</v>
+        <v>228.8467772422438</v>
       </c>
     </row>
     <row r="45">
@@ -7751,25 +7751,25 @@
         <v>896.8295980501256</v>
       </c>
       <c r="R45" t="n">
-        <v>886.4926323709467</v>
+        <v>873.906124245202</v>
       </c>
       <c r="S45" t="n">
-        <v>886.4926323709467</v>
+        <v>873.906124245202</v>
       </c>
       <c r="T45" t="n">
-        <v>886.4926323709467</v>
+        <v>873.906124245202</v>
       </c>
       <c r="U45" t="n">
-        <v>886.4926323709467</v>
+        <v>647.4340035254734</v>
       </c>
       <c r="V45" t="n">
-        <v>660.0205116512179</v>
+        <v>420.9618828057447</v>
       </c>
       <c r="W45" t="n">
-        <v>433.5483909314893</v>
+        <v>225.7880921665353</v>
       </c>
       <c r="X45" t="n">
-        <v>225.6968907259564</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="Y45" t="n">
         <v>17.93659196100251</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>483.5744854437515</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="C46" t="n">
-        <v>483.5744854437515</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="D46" t="n">
-        <v>333.4578460314158</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="E46" t="n">
-        <v>333.4578460314158</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="F46" t="n">
-        <v>186.5678985335054</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="G46" t="n">
-        <v>17.93659196100251</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="H46" t="n">
         <v>17.93659196100251</v>
@@ -7809,22 +7809,22 @@
         <v>17.93659196100251</v>
       </c>
       <c r="K46" t="n">
-        <v>116.1990877137129</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="L46" t="n">
-        <v>297.4676862869273</v>
+        <v>199.205190534217</v>
       </c>
       <c r="M46" t="n">
-        <v>400.0101660818622</v>
+        <v>400.7166350912394</v>
       </c>
       <c r="N46" t="n">
-        <v>602.1647353093963</v>
+        <v>602.8712043187735</v>
       </c>
       <c r="O46" t="n">
-        <v>772.870904141704</v>
+        <v>773.5773731510812</v>
       </c>
       <c r="P46" t="n">
-        <v>895.41883975081</v>
+        <v>896.1253087601872</v>
       </c>
       <c r="Q46" t="n">
         <v>896.8295980501256</v>
@@ -7833,25 +7833,25 @@
         <v>896.8295980501256</v>
       </c>
       <c r="S46" t="n">
-        <v>896.8295980501256</v>
+        <v>688.9630148876397</v>
       </c>
       <c r="T46" t="n">
-        <v>671.095883754249</v>
+        <v>625.352962076993</v>
       </c>
       <c r="U46" t="n">
-        <v>671.095883754249</v>
+        <v>398.8808413572643</v>
       </c>
       <c r="V46" t="n">
-        <v>483.5744854437515</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="W46" t="n">
-        <v>483.5744854437515</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="X46" t="n">
-        <v>483.5744854437515</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="Y46" t="n">
-        <v>483.5744854437515</v>
+        <v>172.4087206375356</v>
       </c>
     </row>
   </sheetData>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>8.962287464735027</v>
+        <v>8.96228746473497</v>
       </c>
       <c r="K12" t="n">
-        <v>46.85674228911735</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>46.85674228911824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>7.488720129793577</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>79.96601801775633</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
         <v>171.8177168444618</v>
@@ -8868,7 +8868,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.91794999460447</v>
+        <v>64.62935331777547</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>8.962287464735027</v>
+        <v>8.96228746473497</v>
       </c>
       <c r="K15" t="n">
-        <v>46.85674228911712</v>
+        <v>46.85674228911759</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>7.488720129793577</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9102,10 +9102,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>36.4629204223516</v>
+        <v>134.2929582540642</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.91794999460447</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>55.81902975385192</v>
+        <v>8.96228746473497</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>46.85674228911759</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>7.48872012979362</v>
+        <v>8.200123452963815</v>
       </c>
       <c r="L19" t="n">
-        <v>161.7610964815767</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
         <v>178.5096609094456</v>
@@ -9342,7 +9342,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>63.91794999460444</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.85674228911739</v>
+        <v>46.85674228911773</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,7 +9561,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>8.200123452963815</v>
+        <v>7.488720129793577</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9573,13 +9573,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>162.3280613059059</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.91794999460444</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>8.96228746473497</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>46.8567422891178</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>46.85674228911768</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>8.200123452964153</v>
+        <v>7.488720129793577</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>161.7610964815779</v>
       </c>
       <c r="M25" t="n">
         <v>178.5096609094456</v>
@@ -9816,7 +9816,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>63.91794999460444</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>8.96228746473497</v>
+        <v>55.81902975385278</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>46.85674228911779</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>8.200123452964153</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10050,7 +10050,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>36.4629204223527</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>63.91794999460444</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>55.81902975385301</v>
+        <v>8.96228746473497</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>46.85674228911779</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>8.200123452964153</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10287,7 +10287,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>36.46292042235292</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>63.91794999460444</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>55.81902975385301</v>
+        <v>8.96228746473497</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.85674228911773</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>7.488720129793577</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10524,10 +10524,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>36.46292042235292</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.91794999460444</v>
+        <v>64.629353317775</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10673,13 +10673,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>15.79998199241956</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>31.0567602966982</v>
       </c>
       <c r="O36" t="n">
-        <v>46.85674228911756</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>8.200123452963815</v>
+        <v>8.200123452964153</v>
       </c>
       <c r="L37" t="n">
         <v>162.4747015415544</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>8.96228746473497</v>
+        <v>55.81902975385278</v>
       </c>
       <c r="K39" t="n">
-        <v>46.85674228911803</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>8.200123452964377</v>
+        <v>8.200123452964153</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -11141,10 +11141,10 @@
         <v>8.96228746473497</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>46.85674228911736</v>
       </c>
       <c r="L42" t="n">
-        <v>46.85674228911759</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>8.200123452963815</v>
+        <v>7.488720129793577</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11238,7 +11238,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.91794999460444</v>
+        <v>64.62935331777454</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>7.488720129793577</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>78.54100963460976</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
         <v>171.8177168444618</v>
@@ -11475,7 +11475,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>64.62935331777454</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.5264421509494</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>130.4756421081513</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>188.7634919741878</v>
+        <v>207.5611029169513</v>
       </c>
       <c r="H11" t="n">
-        <v>315.5937839772516</v>
+        <v>315.5937839772515</v>
       </c>
       <c r="I11" t="n">
         <v>120.5773955598971</v>
@@ -23311,7 +23311,7 @@
         <v>155.8831282137152</v>
       </c>
       <c r="T11" t="n">
-        <v>18.79761094276446</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.1591052255632</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>145.5237011659378</v>
+        <v>145.5237011659374</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>82.48988806414674</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>100.1857948737624</v>
       </c>
       <c r="I12" t="n">
-        <v>46.44034425129607</v>
+        <v>46.44034425129605</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.69423906687436</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>142.7231681550829</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1.651900488316016</v>
+        <v>225.8593000008472</v>
       </c>
       <c r="V12" t="n">
-        <v>8.593187636894072</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>27.48758364838841</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.9449935067779</v>
@@ -23439,7 +23439,7 @@
         <v>123.9948276785279</v>
       </c>
       <c r="J13" t="n">
-        <v>19.40798040283484</v>
+        <v>19.40798040283481</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>205.787917330861</v>
       </c>
       <c r="T13" t="n">
-        <v>150.6338174025261</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>62.05457607023163</v>
+        <v>286.2619755827628</v>
       </c>
       <c r="V13" t="n">
-        <v>27.9302438112968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>95.41039156682677</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>315.7462314149561</v>
+        <v>141.0654922584761</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>130.4756421081515</v>
       </c>
       <c r="E14" t="n">
-        <v>157.7229705597306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>182.66864622918</v>
       </c>
       <c r="G14" t="n">
-        <v>412.970891486719</v>
+        <v>374.7634370684582</v>
       </c>
       <c r="H14" t="n">
-        <v>315.5937839772516</v>
+        <v>315.5937839772515</v>
       </c>
       <c r="I14" t="n">
         <v>120.5773955598971</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U14" t="n">
         <v>251.1591052255632</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>145.5237011659379</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23582,19 +23582,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>54.61163818782259</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H15" t="n">
         <v>100.1857948737624</v>
       </c>
       <c r="I15" t="n">
-        <v>46.44034425129607</v>
+        <v>46.44034425129605</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.69423906687436</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S15" t="n">
         <v>148.5086638144743</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>39.2017310536711</v>
       </c>
       <c r="U15" t="n">
         <v>225.8593000008472</v>
       </c>
       <c r="V15" t="n">
-        <v>8.593187636894129</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>27.48758364838847</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>123.9948276785279</v>
       </c>
       <c r="J16" t="n">
-        <v>19.40798040283484</v>
+        <v>19.40798040283481</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T16" t="n">
         <v>223.4763771529178</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>62.31559882405986</v>
+        <v>228.7911725084011</v>
       </c>
       <c r="X16" t="n">
-        <v>1.502255876506013</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>132.9453575804694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>141.0654922584765</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>368.6685913234506</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4890139960818</v>
+        <v>188.7634919741876</v>
       </c>
       <c r="H17" t="n">
-        <v>315.5937839772516</v>
+        <v>315.5937839772515</v>
       </c>
       <c r="I17" t="n">
         <v>120.5773955598971</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.39129485866161</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.8881935747402</v>
@@ -23791,16 +23791,16 @@
         <v>251.1591052255632</v>
       </c>
       <c r="V17" t="n">
-        <v>103.5448589576038</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>125.0335692048819</v>
+        <v>125.0335692048816</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>162.0305391435222</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>22.00751456328717</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>88.23511400445506</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I18" t="n">
-        <v>46.44034425129607</v>
+        <v>46.44034425129605</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.69423906687436</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>148.5086638144743</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.65190048831613</v>
+        <v>1.651900488315789</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H19" t="n">
-        <v>152.9274073897678</v>
+        <v>112.4965878070695</v>
       </c>
       <c r="I19" t="n">
-        <v>123.9948276785279</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>19.40798040283484</v>
+        <v>19.40798040283481</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>286.2619755827628</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>27.93024381129658</v>
       </c>
       <c r="W19" t="n">
-        <v>81.00684381549976</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>130.4756421081515</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>182.6686462291799</v>
       </c>
       <c r="G20" t="n">
-        <v>207.5611029169519</v>
+        <v>188.7634919741875</v>
       </c>
       <c r="H20" t="n">
         <v>315.5937839772515</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>125.0335692048816</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>320.2044403224168</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>81.56391569635369</v>
       </c>
       <c r="H21" t="n">
         <v>100.1857948737624</v>
       </c>
       <c r="I21" t="n">
-        <v>46.44034425129605</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T21" t="n">
-        <v>149.0522071212779</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8593000008472</v>
+        <v>1.651900488315704</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>27.48758364838818</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.9449935067779</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I22" t="n">
         <v>123.9948276785279</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2620639006821</v>
+        <v>24.43508101435305</v>
       </c>
       <c r="S22" t="n">
         <v>205.787917330861</v>
@@ -24183,16 +24183,16 @@
         <v>223.4763771529178</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2619755827628</v>
+        <v>62.05457607023132</v>
       </c>
       <c r="V22" t="n">
-        <v>27.93024381129658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>62.31559882405958</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>102.3688337985672</v>
+        <v>1.502255876505643</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>316.475587202422</v>
       </c>
       <c r="E23" t="n">
-        <v>236.7016168427049</v>
+        <v>157.7229705597303</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.970891486719</v>
+        <v>188.7634919741875</v>
       </c>
       <c r="H23" t="n">
         <v>315.5937839772515</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>120.5773955598971</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3.391294858661553</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>145.5237011659375</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T24" t="n">
-        <v>168.8568586430473</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U24" t="n">
         <v>1.651900488315704</v>
@@ -24350,7 +24350,7 @@
         <v>27.4875836483881</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>8.291107712839874</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>42.87314955669396</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>123.9948276785279</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S25" t="n">
         <v>205.787917330861</v>
@@ -24423,10 +24423,10 @@
         <v>62.05457607023132</v>
       </c>
       <c r="V25" t="n">
-        <v>27.93024381129649</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>218.5721623870217</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>158.5264421509491</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>130.4756421081514</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>157.7229705597303</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24496,22 +24496,22 @@
         <v>155.8831282137152</v>
       </c>
       <c r="T26" t="n">
-        <v>18.79761094276412</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U26" t="n">
-        <v>26.95170571303171</v>
+        <v>57.06852259358715</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0335692048815</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>162.0305391435221</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,19 +24530,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H27" t="n">
-        <v>59.63246440198479</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I27" t="n">
-        <v>46.44034425129605</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>195.1358332523363</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8593000008472</v>
+        <v>1.651900488315704</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>8.593187636893759</v>
       </c>
       <c r="W27" t="n">
         <v>27.4875836483881</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>54.73145196413591</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>31.57823166659801</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.9449935067779</v>
@@ -24624,7 +24624,7 @@
         <v>123.9948276785279</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>19.40798040283481</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S28" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>223.4763771529178</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>147.4038606096685</v>
+        <v>1.502255876505643</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>158.526442150949</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24697,10 +24697,10 @@
         <v>412.970891486719</v>
       </c>
       <c r="H29" t="n">
-        <v>91.38638446471995</v>
+        <v>162.4371196685648</v>
       </c>
       <c r="I29" t="n">
-        <v>120.5773955598971</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>201.6324448695108</v>
+        <v>26.95170571303171</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24767,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>84.8621271058523</v>
+        <v>117.306680264649</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1857948737624</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>46.44034425129605</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,19 +24809,19 @@
         <v>22.69423906687433</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T30" t="n">
         <v>195.1358332523363</v>
       </c>
       <c r="U30" t="n">
-        <v>1.651900488315647</v>
+        <v>225.8593000008472</v>
       </c>
       <c r="V30" t="n">
-        <v>8.593187636893703</v>
+        <v>8.593187636893759</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>27.4875836483881</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>130.6237884035552</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H31" t="n">
         <v>152.9274073897678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>223.4763771529178</v>
@@ -24897,10 +24897,10 @@
         <v>286.2619755827628</v>
       </c>
       <c r="V31" t="n">
-        <v>41.47841010586978</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>62.31559882405949</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>365.277296464789</v>
       </c>
       <c r="G32" t="n">
-        <v>188.7634919741875</v>
+        <v>412.970891486719</v>
       </c>
       <c r="H32" t="n">
-        <v>315.5937839772515</v>
+        <v>91.38638446472001</v>
       </c>
       <c r="I32" t="n">
         <v>120.5773955598971</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1591052255632</v>
+        <v>26.95170571303171</v>
       </c>
       <c r="V32" t="n">
-        <v>103.5448589576033</v>
+        <v>103.5448589576034</v>
       </c>
       <c r="W32" t="n">
-        <v>299.7143083613606</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.69423906687433</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>195.1358332523363</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8593000008472</v>
+        <v>71.88250526945112</v>
       </c>
       <c r="V33" t="n">
-        <v>113.3938747401578</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25128,19 +25128,19 @@
         <v>205.787917330861</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>25.99449966228011</v>
       </c>
       <c r="U34" t="n">
-        <v>210.9204775005448</v>
+        <v>286.2619755827628</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>27.93024381129649</v>
       </c>
       <c r="W34" t="n">
-        <v>62.31559882405944</v>
+        <v>62.31559882405949</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>1.502255876505643</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>141.065492258476</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>357.3493853856594</v>
+        <v>182.6686462291799</v>
       </c>
       <c r="G35" t="n">
-        <v>412.970891486719</v>
+        <v>188.7634919741875</v>
       </c>
       <c r="H35" t="n">
-        <v>91.38638446472009</v>
+        <v>118.1119064866139</v>
       </c>
       <c r="I35" t="n">
         <v>120.5773955598971</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U35" t="n">
         <v>251.1591052255632</v>
       </c>
       <c r="V35" t="n">
-        <v>103.5448589576035</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>98.9235438097775</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>105.7640501108016</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.0958695452709</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.69423906687433</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>27.48758364838818</v>
+        <v>27.4875836483881</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9449935067779</v>
+        <v>61.11801062044897</v>
       </c>
       <c r="H37" t="n">
         <v>152.9274073897678</v>
@@ -25362,22 +25362,22 @@
         <v>130.2620639006821</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T37" t="n">
         <v>223.4763771529178</v>
       </c>
       <c r="U37" t="n">
-        <v>62.41630057310473</v>
+        <v>286.2619755827628</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>62.31559882405949</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>1.502255876505643</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>341.1350923865581</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>182.6686462291799</v>
       </c>
       <c r="G38" t="n">
         <v>188.7634919741875</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S38" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U38" t="n">
-        <v>26.95170571303166</v>
+        <v>251.1591052255632</v>
       </c>
       <c r="V38" t="n">
-        <v>122.3424699003673</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>162.0305391435221</v>
       </c>
     </row>
     <row r="39">
@@ -25475,19 +25475,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>23.88557432576444</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.0958695452709</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1857948737624</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>46.44034425129605</v>
@@ -25520,22 +25520,22 @@
         <v>22.69423906687433</v>
       </c>
       <c r="S39" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.1358332523363</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.651900488315647</v>
+        <v>225.8593000008472</v>
       </c>
       <c r="V39" t="n">
-        <v>8.593187636893703</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>27.48758364838804</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>8.291107712839761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.9449935067779</v>
@@ -25599,25 +25599,25 @@
         <v>130.2620639006821</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T40" t="n">
-        <v>1.952271320172684</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2619755827628</v>
+        <v>62.05457607023132</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>62.31559882405944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>20.2834625610493</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>141.0654922584761</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>182.66864622918</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>218.880308854743</v>
+        <v>188.7634919741876</v>
       </c>
       <c r="H41" t="n">
         <v>315.5937839772515</v>
@@ -25681,16 +25681,16 @@
         <v>155.8831282137152</v>
       </c>
       <c r="T41" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1591052255632</v>
+        <v>45.74931665579592</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>103.5448589576035</v>
       </c>
       <c r="W41" t="n">
-        <v>125.0335692048816</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>151.8377510147874</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25760,22 +25760,22 @@
         <v>148.5086638144743</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8593000008472</v>
+        <v>9.943008201155806</v>
       </c>
       <c r="V42" t="n">
-        <v>8.593187636893845</v>
+        <v>8.593187636893873</v>
       </c>
       <c r="W42" t="n">
-        <v>27.48758364838818</v>
+        <v>27.48758364838821</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>37.11072717310931</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H43" t="n">
         <v>152.9274073897678</v>
@@ -25839,22 +25839,22 @@
         <v>205.787917330861</v>
       </c>
       <c r="T43" t="n">
-        <v>223.4763771529178</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>62.05457607023141</v>
+        <v>62.05457607023143</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>48.30199731314019</v>
       </c>
       <c r="W43" t="n">
-        <v>62.31559882405958</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>141.0654922584762</v>
+        <v>156.4718083425787</v>
       </c>
       <c r="D44" t="n">
-        <v>130.4756421081516</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>182.66864622918</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>412.970891486719</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S44" t="n">
         <v>155.8831282137152</v>
       </c>
       <c r="T44" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1591052255632</v>
+        <v>26.95170571303183</v>
       </c>
       <c r="V44" t="n">
-        <v>133.6616758381588</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>145.5237011659376</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.46064304448723</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>148.5086638144743</v>
@@ -26000,19 +26000,19 @@
         <v>195.1358332523363</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8593000008472</v>
+        <v>1.651900488315817</v>
       </c>
       <c r="V45" t="n">
         <v>8.593187636893873</v>
       </c>
       <c r="W45" t="n">
-        <v>27.48758364838821</v>
+        <v>58.47293042810239</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H46" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>123.9948276785279</v>
@@ -26073,16 +26073,16 @@
         <v>130.2620639006821</v>
       </c>
       <c r="S46" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.5024248703775</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2619755827628</v>
+        <v>62.05457607023143</v>
       </c>
       <c r="V46" t="n">
-        <v>66.49145899643551</v>
+        <v>27.93024381129661</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426940.1104715003</v>
+        <v>426940.1104715007</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426940.1104715003</v>
+        <v>426940.1104715005</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>426940.1104715003</v>
+        <v>426940.1104715005</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>426940.1104715006</v>
+        <v>426940.1104715004</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>426940.1104715006</v>
+        <v>426940.1104715005</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>426940.1104715005</v>
+        <v>426940.1104715006</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>426940.1104715006</v>
+        <v>426940.1104715005</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>426940.1104715005</v>
+        <v>426940.1104715004</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426940.1104715006</v>
+        <v>426940.1104715004</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426940.1104715004</v>
+        <v>426940.1104715005</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553011.5286340009</v>
+      </c>
+      <c r="C2" t="n">
         <v>553011.528634001</v>
       </c>
-      <c r="C2" t="n">
-        <v>553011.5286340009</v>
-      </c>
       <c r="D2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="E2" t="n">
-        <v>259049.3265451454</v>
+        <v>259049.3265451455</v>
       </c>
       <c r="F2" t="n">
         <v>259049.3265451454</v>
       </c>
       <c r="G2" t="n">
-        <v>259049.3265451452</v>
+        <v>259049.3265451455</v>
       </c>
       <c r="H2" t="n">
-        <v>259049.3265451454</v>
+        <v>259049.3265451455</v>
       </c>
       <c r="I2" t="n">
         <v>259049.3265451455</v>
       </c>
       <c r="J2" t="n">
-        <v>259049.3265451454</v>
+        <v>259049.3265451455</v>
       </c>
       <c r="K2" t="n">
         <v>259049.3265451455</v>
@@ -26346,7 +26346,7 @@
         <v>259049.3265451456</v>
       </c>
       <c r="M2" t="n">
-        <v>259049.3265451455</v>
+        <v>259049.3265451454</v>
       </c>
       <c r="N2" t="n">
         <v>259049.3265451455</v>
@@ -26355,7 +26355,7 @@
         <v>259049.3265451455</v>
       </c>
       <c r="P2" t="n">
-        <v>259049.3265451455</v>
+        <v>259049.3265451454</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>532954.6555050728</v>
+        <v>532954.6555050731</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.062368439510466e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55873.38078812084</v>
+        <v>55873.38078812091</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>14574.49368579751</v>
+        <v>14574.49368579754</v>
       </c>
       <c r="F4" t="n">
-        <v>14574.4936857975</v>
+        <v>14574.49368579752</v>
       </c>
       <c r="G4" t="n">
-        <v>14574.4936857975</v>
+        <v>14574.49368579752</v>
       </c>
       <c r="H4" t="n">
-        <v>14574.49368579752</v>
+        <v>14574.49368579753</v>
       </c>
       <c r="I4" t="n">
         <v>14574.49368579753</v>
@@ -26444,16 +26444,16 @@
         <v>14574.49368579753</v>
       </c>
       <c r="K4" t="n">
-        <v>14574.49368579754</v>
+        <v>14574.49368579753</v>
       </c>
       <c r="L4" t="n">
-        <v>14574.49368579754</v>
+        <v>14574.49368579753</v>
       </c>
       <c r="M4" t="n">
-        <v>14574.49368579752</v>
+        <v>14574.49368579753</v>
       </c>
       <c r="N4" t="n">
-        <v>14574.49368579754</v>
+        <v>14574.49368579753</v>
       </c>
       <c r="O4" t="n">
         <v>14574.49368579752</v>
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26276.82794095489</v>
+        <v>26276.82794095492</v>
       </c>
       <c r="F5" t="n">
-        <v>26276.82794095488</v>
+        <v>26276.82794095491</v>
       </c>
       <c r="G5" t="n">
-        <v>26276.82794095488</v>
+        <v>26276.82794095491</v>
       </c>
       <c r="H5" t="n">
         <v>26276.82794095491</v>
@@ -26496,16 +26496,16 @@
         <v>26276.82794095491</v>
       </c>
       <c r="K5" t="n">
-        <v>26276.82794095492</v>
+        <v>26276.82794095491</v>
       </c>
       <c r="L5" t="n">
-        <v>26276.82794095492</v>
+        <v>26276.82794095491</v>
       </c>
       <c r="M5" t="n">
         <v>26276.82794095491</v>
       </c>
       <c r="N5" t="n">
-        <v>26276.82794095492</v>
+        <v>26276.82794095491</v>
       </c>
       <c r="O5" t="n">
         <v>26276.82794095491</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77690.54285949944</v>
+        <v>77730.26506031235</v>
       </c>
       <c r="C6" t="n">
-        <v>77690.54285949927</v>
+        <v>77730.26506031241</v>
       </c>
       <c r="D6" t="n">
-        <v>77690.54285949933</v>
+        <v>77730.26506031246</v>
       </c>
       <c r="E6" t="n">
-        <v>-325688.2753316147</v>
+        <v>-315849.8130611737</v>
       </c>
       <c r="F6" t="n">
-        <v>207266.380173458</v>
+        <v>217104.8424438995</v>
       </c>
       <c r="G6" t="n">
-        <v>207266.3801734578</v>
+        <v>217104.8424438996</v>
       </c>
       <c r="H6" t="n">
-        <v>207266.3801734578</v>
+        <v>217104.8424438996</v>
       </c>
       <c r="I6" t="n">
-        <v>207266.3801734581</v>
+        <v>217104.8424438995</v>
       </c>
       <c r="J6" t="n">
-        <v>207266.380173458</v>
+        <v>217104.8424438996</v>
       </c>
       <c r="K6" t="n">
-        <v>207266.3801734581</v>
+        <v>217104.8424438996</v>
       </c>
       <c r="L6" t="n">
-        <v>207266.3801734581</v>
+        <v>217104.8424438996</v>
       </c>
       <c r="M6" t="n">
-        <v>151392.9993853372</v>
+        <v>161231.4616557786</v>
       </c>
       <c r="N6" t="n">
-        <v>207266.3801734581</v>
+        <v>217104.8424438995</v>
       </c>
       <c r="O6" t="n">
-        <v>207266.380173458</v>
+        <v>217104.8424438996</v>
       </c>
       <c r="P6" t="n">
-        <v>207266.380173458</v>
+        <v>217104.8424438995</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>580.0466995684859</v>
+        <v>580.0466995684861</v>
       </c>
       <c r="F3" t="n">
-        <v>580.0466995684859</v>
+        <v>580.0466995684861</v>
       </c>
       <c r="G3" t="n">
-        <v>580.0466995684859</v>
+        <v>580.0466995684861</v>
       </c>
       <c r="H3" t="n">
         <v>580.0466995684861</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125316</v>
       </c>
       <c r="F4" t="n">
-        <v>224.2073995125311</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="G4" t="n">
-        <v>224.2073995125311</v>
+        <v>224.2073995125314</v>
       </c>
       <c r="H4" t="n">
-        <v>224.2073995125314</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="I4" t="n">
         <v>224.2073995125315</v>
@@ -26816,16 +26816,16 @@
         <v>224.2073995125315</v>
       </c>
       <c r="K4" t="n">
-        <v>224.2073995125316</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="L4" t="n">
-        <v>224.2073995125316</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="M4" t="n">
-        <v>224.2073995125314</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="N4" t="n">
-        <v>224.2073995125316</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="O4" t="n">
         <v>224.2073995125314</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>580.0466995684859</v>
+        <v>580.0466995684861</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.693417246427766e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>224.2073995125313</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.331846028416022</v>
+        <v>2.331846028416023</v>
       </c>
       <c r="H11" t="n">
-        <v>23.88101813851559</v>
+        <v>23.8810181385156</v>
       </c>
       <c r="I11" t="n">
-        <v>89.89849401050877</v>
+        <v>89.89849401050881</v>
       </c>
       <c r="J11" t="n">
-        <v>197.9125168542745</v>
+        <v>197.9125168542746</v>
       </c>
       <c r="K11" t="n">
-        <v>296.6195592371248</v>
+        <v>296.6195592371249</v>
       </c>
       <c r="L11" t="n">
-        <v>367.9827921292617</v>
+        <v>367.9827921292618</v>
       </c>
       <c r="M11" t="n">
-        <v>409.4517589371051</v>
+        <v>409.4517589371053</v>
       </c>
       <c r="N11" t="n">
-        <v>416.0771164653422</v>
+        <v>416.0771164653423</v>
       </c>
       <c r="O11" t="n">
-        <v>392.8898225202803</v>
+        <v>392.8898225202805</v>
       </c>
       <c r="P11" t="n">
-        <v>335.3223736937597</v>
+        <v>335.3223736937599</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.8131378011109</v>
+        <v>251.813137801111</v>
       </c>
       <c r="R11" t="n">
         <v>146.4778230824881</v>
       </c>
       <c r="S11" t="n">
-        <v>53.13694137253015</v>
+        <v>53.13694137253017</v>
       </c>
       <c r="T11" t="n">
-        <v>10.20765598939114</v>
+        <v>10.20765598939115</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1865476822732817</v>
+        <v>0.1865476822732818</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.247647617939762</v>
+        <v>1.247647617939763</v>
       </c>
       <c r="H12" t="n">
         <v>12.04964936273402</v>
       </c>
       <c r="I12" t="n">
-        <v>42.95628860011901</v>
+        <v>42.95628860011902</v>
       </c>
       <c r="J12" t="n">
         <v>117.8753392019317</v>
       </c>
       <c r="K12" t="n">
-        <v>201.4677296038957</v>
+        <v>201.4677296038958</v>
       </c>
       <c r="L12" t="n">
-        <v>270.8982251145085</v>
+        <v>270.8982251145086</v>
       </c>
       <c r="M12" t="n">
-        <v>316.1254512648248</v>
+        <v>316.1254512648249</v>
       </c>
       <c r="N12" t="n">
-        <v>324.4923512991665</v>
+        <v>324.4923512991666</v>
       </c>
       <c r="O12" t="n">
-        <v>296.8471067121855</v>
+        <v>296.8471067121856</v>
       </c>
       <c r="P12" t="n">
         <v>238.2459736397429</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2611240022756</v>
+        <v>159.2611240022757</v>
       </c>
       <c r="R12" t="n">
-        <v>77.46359508576877</v>
+        <v>77.4635950857688</v>
       </c>
       <c r="S12" t="n">
-        <v>23.17450728936355</v>
+        <v>23.17450728936356</v>
       </c>
       <c r="T12" t="n">
-        <v>5.028895442485267</v>
+        <v>5.028895442485269</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08208208012761596</v>
+        <v>0.082082080127616</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,13 +31913,13 @@
         <v>1.045985851680876</v>
       </c>
       <c r="H13" t="n">
-        <v>9.299765117671797</v>
+        <v>9.2997651176718</v>
       </c>
       <c r="I13" t="n">
-        <v>31.45564724873036</v>
+        <v>31.45564724873037</v>
       </c>
       <c r="J13" t="n">
-        <v>73.95119971383794</v>
+        <v>73.95119971383797</v>
       </c>
       <c r="K13" t="n">
         <v>121.5245380407418</v>
@@ -31928,31 +31928,31 @@
         <v>155.5095692580823</v>
       </c>
       <c r="M13" t="n">
-        <v>163.9630367321213</v>
+        <v>163.9630367321214</v>
       </c>
       <c r="N13" t="n">
         <v>160.0643621940382</v>
       </c>
       <c r="O13" t="n">
-        <v>147.8453456539479</v>
+        <v>147.845345653948</v>
       </c>
       <c r="P13" t="n">
-        <v>126.5072342796579</v>
+        <v>126.507234279658</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.58705163484137</v>
+        <v>87.5870516348414</v>
       </c>
       <c r="R13" t="n">
-        <v>47.03132747648738</v>
+        <v>47.0313274764874</v>
       </c>
       <c r="S13" t="n">
-        <v>18.22868070611126</v>
+        <v>18.22868070611127</v>
       </c>
       <c r="T13" t="n">
-        <v>4.469212275363742</v>
+        <v>4.469212275363744</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05705377372804785</v>
+        <v>0.05705377372804787</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.331846028416022</v>
+        <v>2.331846028416023</v>
       </c>
       <c r="H14" t="n">
-        <v>23.88101813851559</v>
+        <v>23.8810181385156</v>
       </c>
       <c r="I14" t="n">
-        <v>89.89849401050877</v>
+        <v>89.89849401050881</v>
       </c>
       <c r="J14" t="n">
-        <v>197.9125168542745</v>
+        <v>197.9125168542746</v>
       </c>
       <c r="K14" t="n">
-        <v>296.6195592371248</v>
+        <v>296.6195592371249</v>
       </c>
       <c r="L14" t="n">
-        <v>367.9827921292617</v>
+        <v>367.9827921292618</v>
       </c>
       <c r="M14" t="n">
-        <v>409.4517589371051</v>
+        <v>409.4517589371053</v>
       </c>
       <c r="N14" t="n">
-        <v>416.0771164653422</v>
+        <v>416.0771164653423</v>
       </c>
       <c r="O14" t="n">
-        <v>392.8898225202803</v>
+        <v>392.8898225202805</v>
       </c>
       <c r="P14" t="n">
-        <v>335.3223736937597</v>
+        <v>335.3223736937599</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.8131378011109</v>
+        <v>251.813137801111</v>
       </c>
       <c r="R14" t="n">
         <v>146.4778230824881</v>
       </c>
       <c r="S14" t="n">
-        <v>53.13694137253015</v>
+        <v>53.13694137253017</v>
       </c>
       <c r="T14" t="n">
-        <v>10.20765598939114</v>
+        <v>10.20765598939115</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1865476822732817</v>
+        <v>0.1865476822732818</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.247647617939762</v>
+        <v>1.247647617939763</v>
       </c>
       <c r="H15" t="n">
         <v>12.04964936273402</v>
       </c>
       <c r="I15" t="n">
-        <v>42.95628860011901</v>
+        <v>42.95628860011902</v>
       </c>
       <c r="J15" t="n">
         <v>117.8753392019317</v>
       </c>
       <c r="K15" t="n">
-        <v>201.4677296038957</v>
+        <v>201.4677296038958</v>
       </c>
       <c r="L15" t="n">
-        <v>270.8982251145085</v>
+        <v>270.8982251145086</v>
       </c>
       <c r="M15" t="n">
-        <v>316.1254512648248</v>
+        <v>316.1254512648249</v>
       </c>
       <c r="N15" t="n">
-        <v>324.4923512991665</v>
+        <v>324.4923512991666</v>
       </c>
       <c r="O15" t="n">
-        <v>296.8471067121855</v>
+        <v>296.8471067121856</v>
       </c>
       <c r="P15" t="n">
         <v>238.2459736397429</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2611240022756</v>
+        <v>159.2611240022757</v>
       </c>
       <c r="R15" t="n">
-        <v>77.46359508576877</v>
+        <v>77.4635950857688</v>
       </c>
       <c r="S15" t="n">
-        <v>23.17450728936355</v>
+        <v>23.17450728936356</v>
       </c>
       <c r="T15" t="n">
-        <v>5.028895442485267</v>
+        <v>5.028895442485269</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08208208012761596</v>
+        <v>0.082082080127616</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>1.045985851680876</v>
       </c>
       <c r="H16" t="n">
-        <v>9.299765117671797</v>
+        <v>9.2997651176718</v>
       </c>
       <c r="I16" t="n">
-        <v>31.45564724873036</v>
+        <v>31.45564724873037</v>
       </c>
       <c r="J16" t="n">
-        <v>73.95119971383794</v>
+        <v>73.95119971383797</v>
       </c>
       <c r="K16" t="n">
         <v>121.5245380407418</v>
@@ -32165,31 +32165,31 @@
         <v>155.5095692580823</v>
       </c>
       <c r="M16" t="n">
-        <v>163.9630367321213</v>
+        <v>163.9630367321214</v>
       </c>
       <c r="N16" t="n">
         <v>160.0643621940382</v>
       </c>
       <c r="O16" t="n">
-        <v>147.8453456539479</v>
+        <v>147.845345653948</v>
       </c>
       <c r="P16" t="n">
-        <v>126.5072342796579</v>
+        <v>126.507234279658</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.58705163484137</v>
+        <v>87.5870516348414</v>
       </c>
       <c r="R16" t="n">
-        <v>47.03132747648738</v>
+        <v>47.0313274764874</v>
       </c>
       <c r="S16" t="n">
-        <v>18.22868070611126</v>
+        <v>18.22868070611127</v>
       </c>
       <c r="T16" t="n">
-        <v>4.469212275363742</v>
+        <v>4.469212275363744</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05705377372804785</v>
+        <v>0.05705377372804787</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.331846028416022</v>
+        <v>2.331846028416023</v>
       </c>
       <c r="H17" t="n">
-        <v>23.88101813851559</v>
+        <v>23.8810181385156</v>
       </c>
       <c r="I17" t="n">
-        <v>89.89849401050877</v>
+        <v>89.89849401050881</v>
       </c>
       <c r="J17" t="n">
-        <v>197.9125168542745</v>
+        <v>197.9125168542746</v>
       </c>
       <c r="K17" t="n">
-        <v>296.6195592371248</v>
+        <v>296.6195592371249</v>
       </c>
       <c r="L17" t="n">
-        <v>367.9827921292617</v>
+        <v>367.9827921292618</v>
       </c>
       <c r="M17" t="n">
-        <v>409.4517589371051</v>
+        <v>409.4517589371053</v>
       </c>
       <c r="N17" t="n">
-        <v>416.0771164653422</v>
+        <v>416.0771164653423</v>
       </c>
       <c r="O17" t="n">
-        <v>392.8898225202803</v>
+        <v>392.8898225202805</v>
       </c>
       <c r="P17" t="n">
-        <v>335.3223736937597</v>
+        <v>335.3223736937599</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.8131378011109</v>
+        <v>251.813137801111</v>
       </c>
       <c r="R17" t="n">
         <v>146.4778230824881</v>
       </c>
       <c r="S17" t="n">
-        <v>53.13694137253015</v>
+        <v>53.13694137253017</v>
       </c>
       <c r="T17" t="n">
-        <v>10.20765598939114</v>
+        <v>10.20765598939115</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1865476822732817</v>
+        <v>0.1865476822732818</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.247647617939762</v>
+        <v>1.247647617939763</v>
       </c>
       <c r="H18" t="n">
         <v>12.04964936273402</v>
       </c>
       <c r="I18" t="n">
-        <v>42.95628860011901</v>
+        <v>42.95628860011902</v>
       </c>
       <c r="J18" t="n">
         <v>117.8753392019317</v>
       </c>
       <c r="K18" t="n">
-        <v>201.4677296038957</v>
+        <v>201.4677296038958</v>
       </c>
       <c r="L18" t="n">
-        <v>270.8982251145085</v>
+        <v>270.8982251145086</v>
       </c>
       <c r="M18" t="n">
-        <v>316.1254512648248</v>
+        <v>316.1254512648249</v>
       </c>
       <c r="N18" t="n">
-        <v>324.4923512991665</v>
+        <v>324.4923512991666</v>
       </c>
       <c r="O18" t="n">
-        <v>296.8471067121855</v>
+        <v>296.8471067121856</v>
       </c>
       <c r="P18" t="n">
         <v>238.2459736397429</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2611240022756</v>
+        <v>159.2611240022757</v>
       </c>
       <c r="R18" t="n">
-        <v>77.46359508576877</v>
+        <v>77.4635950857688</v>
       </c>
       <c r="S18" t="n">
-        <v>23.17450728936355</v>
+        <v>23.17450728936356</v>
       </c>
       <c r="T18" t="n">
-        <v>5.028895442485267</v>
+        <v>5.028895442485269</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08208208012761596</v>
+        <v>0.082082080127616</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,13 +32387,13 @@
         <v>1.045985851680876</v>
       </c>
       <c r="H19" t="n">
-        <v>9.299765117671797</v>
+        <v>9.2997651176718</v>
       </c>
       <c r="I19" t="n">
-        <v>31.45564724873036</v>
+        <v>31.45564724873037</v>
       </c>
       <c r="J19" t="n">
-        <v>73.95119971383794</v>
+        <v>73.95119971383797</v>
       </c>
       <c r="K19" t="n">
         <v>121.5245380407418</v>
@@ -32402,31 +32402,31 @@
         <v>155.5095692580823</v>
       </c>
       <c r="M19" t="n">
-        <v>163.9630367321213</v>
+        <v>163.9630367321214</v>
       </c>
       <c r="N19" t="n">
         <v>160.0643621940382</v>
       </c>
       <c r="O19" t="n">
-        <v>147.8453456539479</v>
+        <v>147.845345653948</v>
       </c>
       <c r="P19" t="n">
-        <v>126.5072342796579</v>
+        <v>126.507234279658</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.58705163484137</v>
+        <v>87.5870516348414</v>
       </c>
       <c r="R19" t="n">
-        <v>47.03132747648738</v>
+        <v>47.0313274764874</v>
       </c>
       <c r="S19" t="n">
-        <v>18.22868070611126</v>
+        <v>18.22868070611127</v>
       </c>
       <c r="T19" t="n">
-        <v>4.469212275363742</v>
+        <v>4.469212275363744</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05705377372804785</v>
+        <v>0.05705377372804787</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34152,7 +34152,7 @@
         <v>335.3223736937599</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.8131378011107</v>
+        <v>251.813137801111</v>
       </c>
       <c r="R41" t="n">
         <v>146.4778230824881</v>
@@ -34371,7 +34371,7 @@
         <v>197.9125168542746</v>
       </c>
       <c r="K44" t="n">
-        <v>296.6195592371249</v>
+        <v>296.6195592371246</v>
       </c>
       <c r="L44" t="n">
         <v>367.9827921292618</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.86661232758823</v>
+        <v>16.86661232758831</v>
       </c>
       <c r="K11" t="n">
-        <v>76.52970819214426</v>
+        <v>76.52970819214437</v>
       </c>
       <c r="L11" t="n">
-        <v>132.2163771592745</v>
+        <v>132.2163771592746</v>
       </c>
       <c r="M11" t="n">
-        <v>179.1055257098324</v>
+        <v>179.1055257098326</v>
       </c>
       <c r="N11" t="n">
-        <v>186.6640528687512</v>
+        <v>186.6640528687514</v>
       </c>
       <c r="O11" t="n">
-        <v>162.7916110985936</v>
+        <v>162.7916110985937</v>
       </c>
       <c r="P11" t="n">
-        <v>104.0893779384902</v>
+        <v>104.0893779384903</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.50744792666137</v>
+        <v>29.50744792666148</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>110.4830329186541</v>
+        <v>63.62629062953681</v>
       </c>
       <c r="L12" t="n">
-        <v>132.3438453346343</v>
+        <v>132.3438453346344</v>
       </c>
       <c r="M12" t="n">
-        <v>173.9914173428065</v>
+        <v>220.8481596319248</v>
       </c>
       <c r="N12" t="n">
-        <v>193.1506392158332</v>
+        <v>193.1506392158333</v>
       </c>
       <c r="O12" t="n">
-        <v>154.250862267741</v>
+        <v>154.2508622677411</v>
       </c>
       <c r="P12" t="n">
-        <v>104.2715662254126</v>
+        <v>104.2715662254127</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.27934991625409</v>
+        <v>19.27934991625418</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.25504621485891</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>183.0995945183984</v>
+        <v>183.0995945183985</v>
       </c>
       <c r="M13" t="n">
-        <v>105.0032708022726</v>
+        <v>203.546913693962</v>
       </c>
       <c r="N13" t="n">
         <v>204.1965345732668</v>
@@ -35585,10 +35585,10 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P13" t="n">
-        <v>123.7857935445514</v>
+        <v>123.7857935445515</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.7114033231710212</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>16.86661232758823</v>
+        <v>16.86661232758831</v>
       </c>
       <c r="K14" t="n">
-        <v>76.52970819214426</v>
+        <v>76.52970819214437</v>
       </c>
       <c r="L14" t="n">
-        <v>132.2163771592745</v>
+        <v>132.2163771592746</v>
       </c>
       <c r="M14" t="n">
-        <v>179.1055257098324</v>
+        <v>179.1055257098326</v>
       </c>
       <c r="N14" t="n">
-        <v>186.6640528687512</v>
+        <v>186.6640528687514</v>
       </c>
       <c r="O14" t="n">
-        <v>162.7916110985936</v>
+        <v>162.7916110985937</v>
       </c>
       <c r="P14" t="n">
-        <v>104.0893779384902</v>
+        <v>104.0893779384903</v>
       </c>
       <c r="Q14" t="n">
-        <v>29.50744792666137</v>
+        <v>29.50744792666148</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>110.4830329186538</v>
+        <v>110.4830329186544</v>
       </c>
       <c r="L15" t="n">
-        <v>132.3438453346343</v>
+        <v>132.3438453346344</v>
       </c>
       <c r="M15" t="n">
-        <v>173.9914173428065</v>
+        <v>173.9914173428066</v>
       </c>
       <c r="N15" t="n">
-        <v>193.1506392158332</v>
+        <v>193.1506392158333</v>
       </c>
       <c r="O15" t="n">
-        <v>154.250862267741</v>
+        <v>154.2508622677411</v>
       </c>
       <c r="P15" t="n">
-        <v>104.2715662254126</v>
+        <v>104.2715662254127</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.27934991625409</v>
+        <v>19.27934991625418</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.25504621485891</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>183.0995945183984</v>
+        <v>183.0995945183985</v>
       </c>
       <c r="M16" t="n">
-        <v>203.5469136939619</v>
+        <v>203.546913693962</v>
       </c>
       <c r="N16" t="n">
         <v>204.1965345732668</v>
@@ -35822,10 +35822,10 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P16" t="n">
-        <v>25.24215065286189</v>
+        <v>123.0721884845746</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.425008383147016</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16.86661232758823</v>
+        <v>16.86661232758831</v>
       </c>
       <c r="K17" t="n">
-        <v>76.52970819214426</v>
+        <v>76.52970819214437</v>
       </c>
       <c r="L17" t="n">
-        <v>132.2163771592745</v>
+        <v>132.2163771592746</v>
       </c>
       <c r="M17" t="n">
-        <v>179.1055257098324</v>
+        <v>179.1055257098326</v>
       </c>
       <c r="N17" t="n">
-        <v>186.6640528687512</v>
+        <v>186.6640528687514</v>
       </c>
       <c r="O17" t="n">
-        <v>162.7916110985936</v>
+        <v>162.7916110985937</v>
       </c>
       <c r="P17" t="n">
-        <v>104.0893779384902</v>
+        <v>104.0893779384903</v>
       </c>
       <c r="Q17" t="n">
-        <v>29.50744792666137</v>
+        <v>29.50744792666148</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>46.85674228911689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>63.62629062953673</v>
+        <v>110.4830329186544</v>
       </c>
       <c r="L18" t="n">
-        <v>132.3438453346343</v>
+        <v>132.3438453346344</v>
       </c>
       <c r="M18" t="n">
-        <v>173.9914173428065</v>
+        <v>173.9914173428066</v>
       </c>
       <c r="N18" t="n">
-        <v>193.1506392158332</v>
+        <v>193.1506392158333</v>
       </c>
       <c r="O18" t="n">
-        <v>154.250862267741</v>
+        <v>154.2508622677411</v>
       </c>
       <c r="P18" t="n">
-        <v>104.2715662254126</v>
+        <v>104.2715662254127</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.27934991625409</v>
+        <v>19.27934991625418</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.7114033231702388</v>
       </c>
       <c r="L19" t="n">
-        <v>182.3859894584207</v>
+        <v>183.0995945183985</v>
       </c>
       <c r="M19" t="n">
-        <v>203.5469136939619</v>
+        <v>203.546913693962</v>
       </c>
       <c r="N19" t="n">
         <v>204.1965345732668</v>
@@ -36059,10 +36059,10 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P19" t="n">
-        <v>123.7857935445514</v>
+        <v>123.7857935445515</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.425008383146988</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>104.2715662254127</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.13609220537157</v>
+        <v>66.13609220537191</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7114033231702388</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>183.0995945183985</v>
@@ -36293,13 +36293,13 @@
         <v>204.1965345732668</v>
       </c>
       <c r="O22" t="n">
-        <v>172.4304735679876</v>
+        <v>171.7168685080111</v>
       </c>
       <c r="P22" t="n">
         <v>123.7857935445515</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.425008383147016</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>63.62629062953681</v>
+        <v>110.4830329186546</v>
       </c>
       <c r="L24" t="n">
         <v>132.3438453346344</v>
@@ -36451,7 +36451,7 @@
         <v>193.1506392158333</v>
       </c>
       <c r="O24" t="n">
-        <v>201.1076045568588</v>
+        <v>154.2508622677411</v>
       </c>
       <c r="P24" t="n">
         <v>104.2715662254127</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7114033231705762</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>183.0995945183985</v>
+        <v>182.385989458422</v>
       </c>
       <c r="M25" t="n">
         <v>203.546913693962</v>
@@ -36536,7 +36536,7 @@
         <v>123.7857935445515</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.425008383147016</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>132.2163771592746</v>
       </c>
       <c r="M26" t="n">
-        <v>179.1055257098326</v>
+        <v>179.1055257098327</v>
       </c>
       <c r="N26" t="n">
         <v>186.6640528687514</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>46.85674228911781</v>
       </c>
       <c r="K27" t="n">
         <v>63.62629062953681</v>
@@ -36682,7 +36682,7 @@
         <v>132.3438453346344</v>
       </c>
       <c r="M27" t="n">
-        <v>220.8481596319244</v>
+        <v>173.9914173428066</v>
       </c>
       <c r="N27" t="n">
         <v>193.1506392158333</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>99.25504621485895</v>
+        <v>0.7114033231705762</v>
       </c>
       <c r="L28" t="n">
         <v>183.0995945183985</v>
@@ -36770,7 +36770,7 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P28" t="n">
-        <v>25.24215065286304</v>
+        <v>123.7857935445515</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>132.2163771592746</v>
       </c>
       <c r="M29" t="n">
-        <v>179.1055257098326</v>
+        <v>179.1055257098327</v>
       </c>
       <c r="N29" t="n">
         <v>186.6640528687514</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>46.85674228911804</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>63.62629062953681</v>
@@ -36928,7 +36928,7 @@
         <v>154.2508622677411</v>
       </c>
       <c r="P30" t="n">
-        <v>104.2715662254127</v>
+        <v>151.1283085145305</v>
       </c>
       <c r="Q30" t="n">
         <v>19.27934991625418</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>99.25504621485895</v>
+        <v>0.7114033231705762</v>
       </c>
       <c r="L31" t="n">
         <v>183.0995945183985</v>
@@ -37007,7 +37007,7 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P31" t="n">
-        <v>25.24215065286327</v>
+        <v>123.7857935445515</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>16.86661232758831</v>
+        <v>16.86661232758847</v>
       </c>
       <c r="K32" t="n">
         <v>76.52970819214437</v>
@@ -37077,7 +37077,7 @@
         <v>132.2163771592746</v>
       </c>
       <c r="M32" t="n">
-        <v>179.1055257098329</v>
+        <v>179.1055257098326</v>
       </c>
       <c r="N32" t="n">
         <v>186.6640528687514</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>46.85674228911804</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>63.62629062953681</v>
@@ -37168,7 +37168,7 @@
         <v>104.2715662254127</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.27934991625418</v>
+        <v>66.13609220537191</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>99.25504621485895</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>183.0995945183985</v>
@@ -37244,10 +37244,10 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P34" t="n">
-        <v>25.24215065286327</v>
+        <v>123.7857935445515</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.7114033231705619</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>132.3438453346344</v>
       </c>
       <c r="M36" t="n">
-        <v>173.9914173428066</v>
+        <v>189.7913993352261</v>
       </c>
       <c r="N36" t="n">
-        <v>193.1506392158333</v>
+        <v>224.2073995125315</v>
       </c>
       <c r="O36" t="n">
-        <v>201.1076045568587</v>
+        <v>154.2508622677411</v>
       </c>
       <c r="P36" t="n">
         <v>104.2715662254127</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7114033231702388</v>
+        <v>0.7114033231705762</v>
       </c>
       <c r="L37" t="n">
         <v>183.0995945183985</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>46.85674228911781</v>
       </c>
       <c r="K39" t="n">
-        <v>110.4830329186548</v>
+        <v>63.62629062953681</v>
       </c>
       <c r="L39" t="n">
         <v>132.3438453346344</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7114033231707987</v>
+        <v>0.7114033231705762</v>
       </c>
       <c r="L40" t="n">
         <v>183.0995945183985</v>
@@ -37800,7 +37800,7 @@
         <v>104.0893779384903</v>
       </c>
       <c r="Q41" t="n">
-        <v>29.50744792666123</v>
+        <v>29.50744792666148</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>63.62629062953681</v>
+        <v>110.4830329186542</v>
       </c>
       <c r="L42" t="n">
-        <v>179.200587623752</v>
+        <v>132.3438453346344</v>
       </c>
       <c r="M42" t="n">
         <v>173.9914173428066</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7114033231702388</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>183.0995945183985</v>
@@ -37958,7 +37958,7 @@
         <v>123.7857935445515</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.7114033231701025</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>16.86661232758831</v>
       </c>
       <c r="K44" t="n">
-        <v>76.52970819214437</v>
+        <v>76.52970819214407</v>
       </c>
       <c r="L44" t="n">
         <v>132.2163771592746</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>99.25504621485895</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>183.0995945183985</v>
       </c>
       <c r="M46" t="n">
-        <v>103.5782624191261</v>
+        <v>203.546913693962</v>
       </c>
       <c r="N46" t="n">
         <v>204.1965345732668</v>
@@ -38195,7 +38195,7 @@
         <v>123.7857935445515</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.425008383147016</v>
+        <v>0.7114033231701025</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
